--- a/ISUZU TRUCK DATABASE - TKZ.xlsx
+++ b/ISUZU TRUCK DATABASE - TKZ.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$5:$CB$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$5:$CH$87</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -140,9 +140,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>W04D-TP</t>
-  </si>
-  <si>
     <t>4X2</t>
   </si>
   <si>
@@ -513,6 +510,9 @@
   </si>
   <si>
     <t>WINGBOX</t>
+  </si>
+  <si>
+    <t>TH</t>
   </si>
 </sst>
 </file>
@@ -1120,10 +1120,10 @@
   <dimension ref="B1:CH87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="BT31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="CC38" sqref="CC38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,11 +1142,11 @@
     <col min="22" max="22" width="9.140625" style="1"/>
     <col min="23" max="23" width="13" style="1" customWidth="1"/>
     <col min="24" max="24" width="6.5703125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="7.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="13.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="8.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="7.140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.28515625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="8.140625" style="1" customWidth="1"/>
     <col min="28" max="28" width="9" style="1" customWidth="1"/>
-    <col min="29" max="29" width="11.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="11.5703125" style="1" customWidth="1"/>
     <col min="30" max="30" width="10.140625" style="1" customWidth="1"/>
     <col min="31" max="31" width="10.5703125" style="1" customWidth="1"/>
     <col min="32" max="32" width="10.7109375" style="1" customWidth="1"/>
@@ -1185,7 +1185,7 @@
   <sheetData>
     <row r="1" spans="2:86" ht="44.25">
       <c r="B1" s="41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="2" spans="2:86" ht="33">
       <c r="B2" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
@@ -1357,7 +1357,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="30"/>
       <c r="H4" s="4" t="s">
@@ -1428,7 +1428,7 @@
       <c r="BM4" s="13"/>
       <c r="BN4" s="13"/>
       <c r="BO4" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="BP4" s="29"/>
       <c r="BQ4" s="29"/>
@@ -1444,7 +1444,7 @@
       <c r="CA4" s="29"/>
       <c r="CB4" s="29"/>
       <c r="CD4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="2:86" ht="63">
@@ -1452,7 +1452,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>25</v>
@@ -1461,19 +1461,19 @@
         <v>24</v>
       </c>
       <c r="F5" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="31" t="s">
         <v>40</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>41</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>28</v>
       </c>
       <c r="I5" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="38" t="s">
         <v>90</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>91</v>
       </c>
       <c r="K5" s="17" t="s">
         <v>29</v>
@@ -1500,10 +1500,10 @@
         <v>34</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U5" s="17" t="s">
         <v>27</v>
@@ -1518,31 +1518,31 @@
         <v>9</v>
       </c>
       <c r="Y5" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB5" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="Z5" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA5" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB5" s="19" t="s">
+      <c r="AC5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="AC5" s="19" t="s">
+      <c r="AD5" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="AD5" s="19" t="s">
+      <c r="AE5" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="AE5" s="19" t="s">
+      <c r="AF5" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="AF5" s="19" t="s">
+      <c r="AG5" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="AG5" s="19" t="s">
-        <v>87</v>
       </c>
       <c r="AH5" s="19" t="s">
         <v>10</v>
@@ -1554,7 +1554,7 @@
         <v>12</v>
       </c>
       <c r="AK5" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL5" s="20" t="s">
         <v>13</v>
@@ -1563,7 +1563,7 @@
         <v>14</v>
       </c>
       <c r="AN5" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AO5" s="22" t="s">
         <v>15</v>
@@ -1572,40 +1572,40 @@
         <v>16</v>
       </c>
       <c r="AQ5" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR5" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="AR5" s="22" t="s">
+      <c r="AS5" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AS5" s="22" t="s">
-        <v>55</v>
-      </c>
       <c r="AT5" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU5" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AU5" s="22" t="s">
-        <v>44</v>
-      </c>
       <c r="AV5" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW5" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="AW5" s="23" t="s">
+      <c r="AX5" s="23" t="s">
         <v>58</v>
-      </c>
-      <c r="AX5" s="23" t="s">
-        <v>59</v>
       </c>
       <c r="AY5" s="37" t="s">
         <v>17</v>
       </c>
       <c r="AZ5" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BA5" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BB5" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="BC5" s="25" t="s">
         <v>4</v>
@@ -1626,96 +1626,96 @@
         <v>22</v>
       </c>
       <c r="BI5" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BJ5" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="BK5" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="BK5" s="25" t="s">
+      <c r="BL5" s="25" t="s">
         <v>93</v>
-      </c>
-      <c r="BL5" s="25" t="s">
-        <v>94</v>
       </c>
       <c r="BM5" s="25" t="s">
         <v>23</v>
       </c>
       <c r="BN5" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="BO5" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="BP5" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="BQ5" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="BR5" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="BS5" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="BT5" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="BO5" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="BP5" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="BQ5" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="BR5" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="BS5" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT5" s="35" t="s">
-        <v>68</v>
-      </c>
       <c r="BU5" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="BV5" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="BV5" s="35" t="s">
+      <c r="BW5" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="BW5" s="35" t="s">
+      <c r="BX5" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="BX5" s="35" t="s">
+      <c r="BY5" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="BY5" s="35" t="s">
-        <v>78</v>
-      </c>
       <c r="BZ5" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="CA5" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="CB5" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CC5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="CD5" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="CD5" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="CE5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="CF5" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="CF5" s="1" t="s">
+      <c r="CG5" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="CG5" s="1" t="s">
+      <c r="CH5" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="CH5" s="1" t="s">
-        <v>161</v>
-      </c>
     </row>
-    <row r="6" spans="2:86">
+    <row r="6" spans="2:86" hidden="1">
       <c r="B6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="H6" s="1">
         <v>2250</v>
@@ -1742,22 +1742,22 @@
         <v>2950</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X6" s="1">
         <v>4</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB6" s="1">
         <v>80</v>
@@ -1783,7 +1783,7 @@
         <v>2499</v>
       </c>
       <c r="AL6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD6" s="32">
         <v>4.3570000000000002</v>
@@ -1801,16 +1801,16 @@
         <v>0.80900000000000005</v>
       </c>
       <c r="BI6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BJ6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BK6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BM6" s="1">
         <v>3.97</v>
@@ -1819,78 +1819,78 @@
         <v>4.7770000000000001</v>
       </c>
       <c r="BO6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BP6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BQ6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BR6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BS6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BT6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BU6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BV6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BW6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BY6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BZ6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CA6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CB6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CC6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CG6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CH6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:86">
       <c r="B7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H7" s="1">
         <v>2250</v>
@@ -1917,22 +1917,22 @@
         <v>2950</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X7" s="1">
         <v>4</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB7" s="1">
         <v>80</v>
@@ -1958,7 +1958,7 @@
         <v>2499</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD7" s="32">
         <v>4.3570000000000002</v>
@@ -1976,16 +1976,16 @@
         <v>0.80900000000000005</v>
       </c>
       <c r="BI7" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BJ7" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BK7" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BM7" s="1">
         <v>3.97</v>
@@ -1994,78 +1994,78 @@
         <v>4.7770000000000001</v>
       </c>
       <c r="BO7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BP7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BQ7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BR7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BS7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BT7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BU7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BV7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BW7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BY7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BZ7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CA7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CB7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CC7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CF7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CG7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CH7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:86">
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="H8" s="1">
         <v>2490</v>
@@ -2092,22 +2092,22 @@
         <v>5100</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X8" s="1">
         <v>4</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB8" s="1">
         <v>100</v>
@@ -2130,7 +2130,7 @@
         <v>2771</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD8" s="32">
         <v>5.016</v>
@@ -2148,16 +2148,16 @@
         <v>0.77</v>
       </c>
       <c r="BI8" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BJ8" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BK8" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BM8" s="1">
         <v>4.7830000000000004</v>
@@ -2166,78 +2166,78 @@
         <v>4.875</v>
       </c>
       <c r="BO8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BP8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BQ8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BR8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BS8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BT8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BU8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BV8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BW8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BY8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BZ8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CA8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CB8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CC8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CG8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CH8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="9" spans="2:86">
+    <row r="9" spans="2:86" hidden="1">
       <c r="B9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H9" s="1">
         <v>2490</v>
@@ -2264,22 +2264,22 @@
         <v>5100</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X9" s="1">
         <v>4</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB9" s="1">
         <v>100</v>
@@ -2302,7 +2302,7 @@
         <v>2771</v>
       </c>
       <c r="AL9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD9" s="32">
         <v>5.5940000000000003</v>
@@ -2320,16 +2320,16 @@
         <v>0.79400000000000004</v>
       </c>
       <c r="BI9" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BJ9" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BK9" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BM9" s="1">
         <v>5.3339999999999996</v>
@@ -2338,78 +2338,78 @@
         <v>5.8570000000000002</v>
       </c>
       <c r="BO9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BP9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BQ9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BR9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BS9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BT9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BU9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BV9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BW9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BY9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BZ9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CA9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CB9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CC9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CG9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CH9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:86">
       <c r="B10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H10" s="1">
         <v>3360</v>
@@ -2436,22 +2436,22 @@
         <v>5100</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X10" s="1">
         <v>4</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB10" s="1">
         <v>100</v>
@@ -2474,7 +2474,7 @@
         <v>2771</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD10" s="32">
         <v>5.5940000000000003</v>
@@ -2492,16 +2492,16 @@
         <v>0.79400000000000004</v>
       </c>
       <c r="BI10" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BJ10" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BK10" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BM10" s="1">
         <v>5.3339999999999996</v>
@@ -2510,78 +2510,78 @@
         <v>5.8570000000000002</v>
       </c>
       <c r="BO10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BP10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BQ10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BR10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BS10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BT10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BU10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BV10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BW10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BY10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BZ10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CA10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CB10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CC10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CG10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CH10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:86">
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H11" s="1">
         <v>2490</v>
@@ -2608,22 +2608,22 @@
         <v>5100</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X11" s="1">
         <v>4</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB11" s="1">
         <v>125</v>
@@ -2646,7 +2646,7 @@
         <v>4570</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD11" s="1">
         <v>5.3150000000000004</v>
@@ -2664,16 +2664,16 @@
         <v>0.72099999999999997</v>
       </c>
       <c r="BI11" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BJ11" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BK11" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BM11" s="1">
         <v>5.0679999999999996</v>
@@ -2682,78 +2682,78 @@
         <v>4.556</v>
       </c>
       <c r="BO11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BP11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BQ11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BR11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BS11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BT11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BU11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BV11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BW11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BY11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BZ11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CA11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CB11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CC11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CG11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CH11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="12" spans="2:86">
+    <row r="12" spans="2:86" hidden="1">
       <c r="B12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H12" s="1">
         <v>3360</v>
@@ -2780,22 +2780,22 @@
         <v>5100</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X12" s="1">
         <v>4</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB12" s="1">
         <v>125</v>
@@ -2818,7 +2818,7 @@
         <v>4570</v>
       </c>
       <c r="AL12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD12" s="1">
         <v>5.3150000000000004</v>
@@ -2836,16 +2836,16 @@
         <v>0.72099999999999997</v>
       </c>
       <c r="BI12" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BJ12" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BK12" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BM12" s="1">
         <v>5.0679999999999996</v>
@@ -2854,78 +2854,78 @@
         <v>4.556</v>
       </c>
       <c r="BO12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BP12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BQ12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BR12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BS12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BT12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BU12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BV12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BW12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BY12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BZ12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CA12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CB12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CC12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CG12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CH12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="2:86">
       <c r="B13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H13" s="1">
         <v>3360</v>
@@ -2952,22 +2952,22 @@
         <v>8250</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X13" s="1">
         <v>4</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB13" s="1">
         <v>125</v>
@@ -2990,7 +2990,7 @@
         <v>4570</v>
       </c>
       <c r="AL13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD13" s="1">
         <v>5.9790000000000001</v>
@@ -3011,13 +3011,13 @@
         <v>0.75900000000000001</v>
       </c>
       <c r="BJ13" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BK13" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BM13" s="1">
         <v>5.7009999999999996</v>
@@ -3026,78 +3026,78 @@
         <v>5.375</v>
       </c>
       <c r="BO13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BP13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BQ13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BR13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BS13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BT13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BU13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BV13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BW13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BY13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BZ13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CA13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CB13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CC13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CG13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CH13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="2:86">
       <c r="B14" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H14" s="1">
         <v>4175</v>
@@ -3124,22 +3124,22 @@
         <v>8000</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X14" s="1">
         <v>4</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB14" s="1">
         <v>125</v>
@@ -3162,7 +3162,7 @@
         <v>4570</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD14" s="1">
         <v>5.9790000000000001</v>
@@ -3183,13 +3183,13 @@
         <v>0.75900000000000001</v>
       </c>
       <c r="BJ14" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BK14" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BM14" s="1">
         <v>5.7009999999999996</v>
@@ -3198,78 +3198,78 @@
         <v>5.375</v>
       </c>
       <c r="BO14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BP14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BQ14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BR14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BS14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BT14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BU14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BV14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BW14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BY14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BZ14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CA14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CB14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CC14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CG14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CH14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="2:86">
       <c r="B15" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H15" s="1">
         <v>3360</v>
@@ -3296,22 +3296,22 @@
         <v>8250</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X15" s="1">
         <v>4</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB15" s="1">
         <v>125</v>
@@ -3334,7 +3334,7 @@
         <v>4570</v>
       </c>
       <c r="AL15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD15" s="1">
         <v>5.9790000000000001</v>
@@ -3355,13 +3355,13 @@
         <v>0.75900000000000001</v>
       </c>
       <c r="BJ15" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BK15" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BM15" s="1">
         <v>5.7009999999999996</v>
@@ -3370,78 +3370,78 @@
         <v>5.8570000000000002</v>
       </c>
       <c r="BO15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BP15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BQ15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BR15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BS15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BT15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BU15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BV15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BW15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BY15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BZ15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CA15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CB15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CC15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CG15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CH15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:86">
       <c r="B16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H16" s="1">
         <v>3360</v>
@@ -3468,22 +3468,22 @@
         <v>8250</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X16" s="1">
         <v>4</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB16" s="1">
         <v>125</v>
@@ -3506,7 +3506,7 @@
         <v>4570</v>
       </c>
       <c r="AL16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD16" s="1">
         <v>5.9790000000000001</v>
@@ -3527,13 +3527,13 @@
         <v>0.75900000000000001</v>
       </c>
       <c r="BJ16" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BK16" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BM16" s="1">
         <v>5.7009999999999996</v>
@@ -3542,84 +3542,84 @@
         <v>6.1420000000000003</v>
       </c>
       <c r="BO16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BP16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BQ16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BR16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BS16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BT16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BU16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BV16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BW16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BY16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BZ16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CA16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CB16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CC16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CG16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CH16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="17" spans="2:86">
+    <row r="17" spans="2:86" hidden="1">
       <c r="B17" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H17" s="1">
         <v>4175</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L17" s="1">
         <v>7445</v>
@@ -3640,45 +3640,45 @@
         <v>8000</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V17" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="X17" s="1">
         <v>4</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB17" s="1">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="AC17" s="27">
-        <f t="shared" si="0"/>
-        <v>95.614869999999996</v>
+        <f t="shared" ref="AC17" si="2">AB17*0.735499</f>
+        <v>91.937375000000003</v>
       </c>
       <c r="AD17" s="1">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="AE17" s="1">
-        <v>35</v>
+        <v>22.5</v>
       </c>
       <c r="AF17" s="27">
-        <f t="shared" si="1"/>
-        <v>343.23274999999995</v>
+        <f t="shared" ref="AF17" si="3">AE17*9.80665</f>
+        <v>220.64962499999999</v>
       </c>
       <c r="AH17" s="1">
         <v>4570</v>
       </c>
       <c r="AL17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD17" s="1">
         <v>5.3150000000000004</v>
@@ -3696,16 +3696,16 @@
         <v>0.72099999999999997</v>
       </c>
       <c r="BI17" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BJ17" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BK17" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BM17" s="1">
         <v>5.0679999999999996</v>
@@ -3714,84 +3714,84 @@
         <v>4.556</v>
       </c>
       <c r="BO17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BP17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BQ17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BR17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BS17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BT17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BU17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BV17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BW17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BY17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BZ17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CA17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CB17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CC17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CG17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CH17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="18" spans="2:86">
+    <row r="18" spans="2:86" hidden="1">
       <c r="B18" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H18" s="1">
         <v>2490</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L18" s="1">
         <v>4870</v>
@@ -3812,22 +3812,22 @@
         <v>5100</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V18" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X18" s="1">
         <v>4</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB18" s="1">
         <v>100</v>
@@ -3850,7 +3850,7 @@
         <v>2771</v>
       </c>
       <c r="AL18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD18" s="32">
         <v>5.016</v>
@@ -3868,16 +3868,16 @@
         <v>0.77</v>
       </c>
       <c r="BI18" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BJ18" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BK18" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BM18" s="1">
         <v>4.7830000000000004</v>
@@ -3886,84 +3886,84 @@
         <v>4.875</v>
       </c>
       <c r="BO18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BP18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BQ18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BR18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BS18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BT18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BU18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BV18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BW18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BY18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BZ18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CA18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CB18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CC18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CG18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CH18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="19" spans="2:86">
+    <row r="19" spans="2:86" hidden="1">
       <c r="B19" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H19" s="1">
         <v>2490</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L19" s="1">
         <v>4870</v>
@@ -3984,22 +3984,22 @@
         <v>5100</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X19" s="1">
         <v>4</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB19" s="1">
         <v>100</v>
@@ -4022,7 +4022,7 @@
         <v>2771</v>
       </c>
       <c r="AL19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD19" s="32">
         <v>5.5940000000000003</v>
@@ -4040,16 +4040,16 @@
         <v>0.79400000000000004</v>
       </c>
       <c r="BI19" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BJ19" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BK19" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BM19" s="1">
         <v>5.3339999999999996</v>
@@ -4058,84 +4058,84 @@
         <v>5.8570000000000002</v>
       </c>
       <c r="BO19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BP19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BQ19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BR19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BS19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BT19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BU19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BV19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BW19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BY19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BZ19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CA19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CB19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CC19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CG19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CH19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="20" spans="2:86">
+    <row r="20" spans="2:86" hidden="1">
       <c r="B20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H20" s="1">
         <v>3360</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L20" s="1">
         <v>6170</v>
@@ -4156,22 +4156,22 @@
         <v>5100</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V20" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X20" s="1">
         <v>4</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB20" s="1">
         <v>125</v>
@@ -4194,7 +4194,7 @@
         <v>4570</v>
       </c>
       <c r="AL20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD20" s="32">
         <v>5.5940000000000003</v>
@@ -4212,16 +4212,16 @@
         <v>0.79400000000000004</v>
       </c>
       <c r="BI20" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BJ20" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BK20" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BM20" s="1">
         <v>5.3339999999999996</v>
@@ -4230,84 +4230,84 @@
         <v>5.8570000000000002</v>
       </c>
       <c r="BO20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BP20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BQ20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BR20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BS20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BT20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BU20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BV20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BW20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BY20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BZ20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CA20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CB20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CC20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CG20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CH20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="21" spans="2:86">
+    <row r="21" spans="2:86" hidden="1">
       <c r="B21" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H21" s="1">
         <v>3360</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L21" s="1">
         <v>6170</v>
@@ -4328,22 +4328,22 @@
         <v>5100</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X21" s="1">
         <v>4</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB21" s="1">
         <v>125</v>
@@ -4366,7 +4366,7 @@
         <v>4570</v>
       </c>
       <c r="AL21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD21" s="1">
         <v>5.3150000000000004</v>
@@ -4384,16 +4384,16 @@
         <v>0.72099999999999997</v>
       </c>
       <c r="BI21" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BJ21" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BK21" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BM21" s="1">
         <v>5.0679999999999996</v>
@@ -4402,84 +4402,84 @@
         <v>4.3</v>
       </c>
       <c r="BO21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BP21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BQ21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BR21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BS21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BT21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BU21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BV21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BW21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BY21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BZ21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CA21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CB21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CC21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CG21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CH21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="22" spans="2:86">
+    <row r="22" spans="2:86" hidden="1">
       <c r="B22" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H22" s="1">
         <v>3395</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L22" s="1">
         <v>6035</v>
@@ -4500,22 +4500,22 @@
         <v>6000</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V22" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X22" s="1">
         <v>4</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB22" s="1">
         <v>150</v>
@@ -4538,7 +4538,7 @@
         <v>4778</v>
       </c>
       <c r="AL22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD22" s="1">
         <v>5.3150000000000004</v>
@@ -4556,16 +4556,16 @@
         <v>0.72099999999999997</v>
       </c>
       <c r="BI22" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BJ22" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BK22" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BM22" s="1">
         <v>5.0679999999999996</v>
@@ -4574,78 +4574,78 @@
         <v>5.125</v>
       </c>
       <c r="BO22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BP22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BQ22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BR22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BS22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BT22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BU22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BV22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BW22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BY22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BZ22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CA22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CB22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CC22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CD22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CE22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CG22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CH22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:86">
       <c r="B23" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="H23" s="1">
         <v>4300</v>
@@ -4672,22 +4672,22 @@
         <v>16000</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V23" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X23" s="1">
         <v>6</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB23" s="1">
         <v>245</v>
@@ -4710,7 +4710,7 @@
         <v>7790</v>
       </c>
       <c r="AL23" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD23" s="27">
         <v>9.01</v>
@@ -4731,13 +4731,13 @@
         <v>1</v>
       </c>
       <c r="BJ23" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BK23" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BL23" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BM23" s="27">
         <v>8.6300000000000008</v>
@@ -4746,78 +4746,78 @@
         <v>5.5709999999999997</v>
       </c>
       <c r="BO23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BP23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BQ23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BR23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BS23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BT23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BU23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BV23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BW23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BY23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BZ23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CA23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CB23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CC23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CG23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CH23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="2:86">
       <c r="B24" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H24" s="1">
         <v>5060</v>
@@ -4844,22 +4844,22 @@
         <v>16000</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V24" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X24" s="1">
         <v>6</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB24" s="1">
         <v>245</v>
@@ -4882,7 +4882,7 @@
         <v>7790</v>
       </c>
       <c r="AL24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD24" s="27">
         <v>9.01</v>
@@ -4903,13 +4903,13 @@
         <v>1</v>
       </c>
       <c r="BJ24" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BK24" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BL24" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BM24" s="27">
         <v>8.6300000000000008</v>
@@ -4918,78 +4918,78 @@
         <v>5.5709999999999997</v>
       </c>
       <c r="BO24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BP24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BQ24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BR24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BS24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BT24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BU24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BV24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BW24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BY24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BZ24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CA24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CB24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CC24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CD24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CG24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CH24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="2:86">
       <c r="B25" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H25" s="1">
         <v>5060</v>
@@ -5016,22 +5016,22 @@
         <v>16000</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V25" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X25" s="1">
         <v>6</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB25" s="1">
         <v>245</v>
@@ -5054,7 +5054,7 @@
         <v>7790</v>
       </c>
       <c r="AL25" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD25" s="27">
         <v>9.01</v>
@@ -5075,13 +5075,13 @@
         <v>1</v>
       </c>
       <c r="BJ25" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BK25" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BL25" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BM25" s="27">
         <v>8.6300000000000008</v>
@@ -5090,78 +5090,78 @@
         <v>5.5709999999999997</v>
       </c>
       <c r="BO25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BP25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BQ25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BR25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BS25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BT25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BU25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BV25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BW25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BY25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BZ25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CA25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CB25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CC25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CG25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CH25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="2:86">
       <c r="B26" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H26" s="1">
         <v>5560</v>
@@ -5188,22 +5188,22 @@
         <v>16000</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V26" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X26" s="1">
         <v>6</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB26" s="1">
         <v>245</v>
@@ -5226,7 +5226,7 @@
         <v>7790</v>
       </c>
       <c r="AL26" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD26" s="27">
         <v>9.01</v>
@@ -5247,13 +5247,13 @@
         <v>1</v>
       </c>
       <c r="BJ26" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BK26" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BL26" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BM26" s="27">
         <v>8.6300000000000008</v>
@@ -5262,78 +5262,78 @@
         <v>5.5709999999999997</v>
       </c>
       <c r="BO26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BP26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BQ26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BR26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BS26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BT26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BU26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BV26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BW26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BY26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BZ26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CA26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CB26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CC26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CG26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CH26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="2:86">
       <c r="B27" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H27" s="1">
         <v>6160</v>
@@ -5360,22 +5360,22 @@
         <v>16000</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X27" s="1">
         <v>6</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB27" s="1">
         <v>245</v>
@@ -5398,7 +5398,7 @@
         <v>7790</v>
       </c>
       <c r="AL27" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD27" s="27">
         <v>9.01</v>
@@ -5419,13 +5419,13 @@
         <v>1</v>
       </c>
       <c r="BJ27" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BK27" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BL27" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BM27" s="27">
         <v>8.6300000000000008</v>
@@ -5434,78 +5434,78 @@
         <v>5.5709999999999997</v>
       </c>
       <c r="BO27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BP27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BQ27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BR27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BS27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BT27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BU27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BV27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BW27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BY27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BZ27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CA27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CB27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CC27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CG27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CH27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="2:86">
       <c r="B28" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H28" s="1">
         <v>6600</v>
@@ -5532,22 +5532,22 @@
         <v>16000</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X28" s="1">
         <v>6</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB28" s="1">
         <v>245</v>
@@ -5570,7 +5570,7 @@
         <v>7790</v>
       </c>
       <c r="AL28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD28" s="27">
         <v>9.01</v>
@@ -5591,13 +5591,13 @@
         <v>1</v>
       </c>
       <c r="BJ28" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BK28" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BL28" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BM28" s="27">
         <v>8.6300000000000008</v>
@@ -5606,78 +5606,78 @@
         <v>5.5709999999999997</v>
       </c>
       <c r="BO28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BP28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BQ28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BR28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BS28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BT28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BU28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BV28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BW28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BY28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BZ28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CA28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CB28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CC28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CG28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CH28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="2:86">
       <c r="B29" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H29" s="1">
         <v>4115</v>
@@ -5707,22 +5707,22 @@
         <v>26000</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="V29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X29" s="1">
         <v>6</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB29" s="1">
         <v>245</v>
@@ -5745,7 +5745,7 @@
         <v>7790</v>
       </c>
       <c r="AL29" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD29" s="27">
         <v>9.01</v>
@@ -5766,13 +5766,13 @@
         <v>1</v>
       </c>
       <c r="BJ29" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BK29" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BL29" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BM29" s="27">
         <v>8.6300000000000008</v>
@@ -5781,78 +5781,78 @@
         <v>5.5709999999999997</v>
       </c>
       <c r="BO29" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BP29" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BQ29" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BR29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BS29" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BT29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BU29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BV29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BW29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BY29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BZ29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CA29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CB29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CC29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CG29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CH29" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="2:86">
       <c r="B30" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H30" s="1">
         <v>5825</v>
@@ -5882,22 +5882,22 @@
         <v>26000</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="V30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X30" s="1">
         <v>6</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB30" s="1">
         <v>245</v>
@@ -5920,7 +5920,7 @@
         <v>7790</v>
       </c>
       <c r="AL30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD30" s="27">
         <v>9.01</v>
@@ -5941,13 +5941,13 @@
         <v>1</v>
       </c>
       <c r="BJ30" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BK30" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BL30" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BM30" s="27">
         <v>8.6300000000000008</v>
@@ -5956,78 +5956,78 @@
         <v>5.5709999999999997</v>
       </c>
       <c r="BO30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BP30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BQ30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BR30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BS30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BT30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BU30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BV30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BW30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BY30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BZ30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CA30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CB30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CC30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CD30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CG30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CH30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="2:86">
       <c r="B31" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H31" s="1">
         <v>5825</v>
@@ -6057,22 +6057,22 @@
         <v>26000</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="V31" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X31" s="1">
         <v>6</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB31" s="1">
         <v>245</v>
@@ -6095,7 +6095,7 @@
         <v>7790</v>
       </c>
       <c r="AL31" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD31" s="39">
         <v>8.8070000000000004</v>
@@ -6131,78 +6131,78 @@
         <v>5.8570000000000002</v>
       </c>
       <c r="BO31" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BP31" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BQ31" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BR31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BS31" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BT31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BU31" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BV31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BW31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BY31" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BZ31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CA31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CB31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CC31" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CD31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CG31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CH31" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="2:86">
       <c r="B32" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H32" s="1">
         <v>4965</v>
@@ -6232,22 +6232,22 @@
         <v>26000</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="V32" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X32" s="1">
         <v>6</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB32" s="1">
         <v>245</v>
@@ -6270,7 +6270,7 @@
         <v>7790</v>
       </c>
       <c r="AL32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD32" s="39">
         <v>8.8070000000000004</v>
@@ -6306,78 +6306,78 @@
         <v>5.8570000000000002</v>
       </c>
       <c r="BO32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BP32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BQ32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BR32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BS32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BT32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BU32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BV32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BW32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BY32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BZ32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CA32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CB32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CC32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CG32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CH32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="2:86">
       <c r="B33" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H33" s="1">
         <v>4115</v>
@@ -6407,22 +6407,22 @@
         <v>26000</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X33" s="1">
         <v>6</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB33" s="1">
         <v>285</v>
@@ -6445,7 +6445,7 @@
         <v>7790</v>
       </c>
       <c r="AL33" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD33" s="39">
         <v>8.8070000000000004</v>
@@ -6481,78 +6481,78 @@
         <v>6.1429999999999998</v>
       </c>
       <c r="BO33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BP33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BQ33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BR33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BS33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BT33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BU33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BV33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BW33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BY33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BZ33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CA33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CB33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CC33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CD33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CG33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CH33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="2:86">
       <c r="B34" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H34" s="1">
         <v>5825</v>
@@ -6582,22 +6582,22 @@
         <v>26000</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V34" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X34" s="1">
         <v>6</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB34" s="1">
         <v>285</v>
@@ -6620,7 +6620,7 @@
         <v>7790</v>
       </c>
       <c r="AL34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD34" s="39">
         <v>8.8070000000000004</v>
@@ -6656,78 +6656,78 @@
         <v>6.1429999999999998</v>
       </c>
       <c r="BO34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BP34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BQ34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BR34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BS34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BT34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BU34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BV34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BW34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BY34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BZ34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CA34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CB34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CC34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CG34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CH34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="35" spans="2:86">
+    <row r="35" spans="2:86" hidden="1">
       <c r="B35" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H35" s="1">
         <v>3565</v>
@@ -6757,22 +6757,22 @@
         <v>26000</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X35" s="1">
         <v>6</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB35" s="1">
         <v>285</v>
@@ -6795,7 +6795,7 @@
         <v>7790</v>
       </c>
       <c r="AL35" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD35" s="39">
         <v>8.8070000000000004</v>
@@ -6831,84 +6831,84 @@
         <v>6.1429999999999998</v>
       </c>
       <c r="BO35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BP35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BQ35" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BR35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BS35" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BT35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BU35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BV35" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BW35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BY35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BZ35" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CA35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CB35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CC35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CG35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CH35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="2:86">
       <c r="B36" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H36" s="1">
         <v>3560</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L36" s="1">
         <v>5860</v>
@@ -6929,22 +6929,22 @@
         <v>32700</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="V36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X36" s="1">
         <v>6</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA36" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB36" s="1">
         <v>245</v>
@@ -6967,7 +6967,7 @@
         <v>7790</v>
       </c>
       <c r="AL36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD36" s="27">
         <v>9.01</v>
@@ -6988,13 +6988,13 @@
         <v>1</v>
       </c>
       <c r="BJ36" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BK36" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BL36" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BM36" s="27">
         <v>8.6300000000000008</v>
@@ -7003,84 +7003,84 @@
         <v>5.5709999999999997</v>
       </c>
       <c r="BO36" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="BP36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BQ36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BR36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BS36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BT36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BU36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BV36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BW36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BY36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BZ36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CA36" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="CB36" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CC36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CG36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CH36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="2:86">
       <c r="B37" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H37" s="1">
         <v>3560</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L37" s="1">
         <v>5860</v>
@@ -7101,22 +7101,22 @@
         <v>38100</v>
       </c>
       <c r="U37" s="40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="V37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X37" s="1">
         <v>6</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA37" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB37" s="1">
         <v>285</v>
@@ -7139,7 +7139,7 @@
         <v>7790</v>
       </c>
       <c r="AL37" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD37" s="39">
         <v>8.8070000000000004</v>
@@ -7175,78 +7175,78 @@
         <v>5.125</v>
       </c>
       <c r="BO37" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="BP37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BQ37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BR37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BS37" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="BT37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BU37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BV37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BW37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BY37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BZ37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CA37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CB37" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CC37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CG37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CH37" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="2:86">
       <c r="B38" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H38" s="1">
         <v>3265</v>
@@ -7255,7 +7255,7 @@
         <v>1370</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L38" s="1">
         <v>6600</v>
@@ -7276,22 +7276,22 @@
         <v>38100</v>
       </c>
       <c r="U38" s="40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V38" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X38" s="1">
         <v>6</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA38" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB38" s="1">
         <v>285</v>
@@ -7314,7 +7314,7 @@
         <v>7790</v>
       </c>
       <c r="AL38" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD38" s="39">
         <v>8.8070000000000004</v>
@@ -7350,78 +7350,78 @@
         <v>6.1429999999999998</v>
       </c>
       <c r="BO38" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="BP38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BQ38" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="BR38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BS38" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="BT38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BU38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BV38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BW38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BY38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BZ38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CA38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CB38" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CC38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CG38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CH38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="2:86">
       <c r="B39" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H39" s="1">
         <v>3265</v>
@@ -7430,7 +7430,7 @@
         <v>1370</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L39" s="1">
         <v>6600</v>
@@ -7451,22 +7451,22 @@
         <v>46100</v>
       </c>
       <c r="U39" s="40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V39" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X39" s="1">
         <v>6</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB39" s="1">
         <v>345</v>
@@ -7489,7 +7489,7 @@
         <v>7790</v>
       </c>
       <c r="AL39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD39" s="39">
         <v>7.125</v>
@@ -7525,78 +7525,78 @@
         <v>5.5709999999999997</v>
       </c>
       <c r="BO39" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="BP39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BQ39" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="BR39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BS39" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="BT39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BU39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BV39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BW39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BY39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BZ39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CA39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CB39" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CC39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CG39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CH39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="2:86">
       <c r="B40" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H40" s="1">
         <v>5320</v>
@@ -7623,22 +7623,22 @@
         <v>10000</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="V40" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X40" s="1">
         <v>4</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB40" s="1">
         <v>190</v>
@@ -7661,7 +7661,7 @@
         <v>5193</v>
       </c>
       <c r="AL40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD40" s="1">
         <v>6.6150000000000002</v>
@@ -7682,13 +7682,13 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="BJ40" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BK40" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BL40" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BM40" s="1">
         <v>6.6150000000000002</v>
@@ -7697,78 +7697,78 @@
         <v>6.5</v>
       </c>
       <c r="BO40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BP40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BQ40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BR40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BS40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BT40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BU40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BV40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BW40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BY40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BZ40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CA40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CB40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CC40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CG40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CH40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="2:86">
       <c r="B41" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H41" s="1">
         <v>6050</v>
@@ -7795,22 +7795,22 @@
         <v>14000</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="V41" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X41" s="1">
         <v>4</v>
       </c>
       <c r="Z41" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA41" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB41" s="1">
         <v>210</v>
@@ -7833,7 +7833,7 @@
         <v>5193</v>
       </c>
       <c r="AL41" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD41" s="1">
         <v>6.6150000000000002</v>
@@ -7854,13 +7854,13 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="BJ41" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BK41" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BL41" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BM41" s="1">
         <v>6.6150000000000002</v>
@@ -7869,78 +7869,78 @@
         <v>6.5</v>
       </c>
       <c r="BO41" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BP41" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BQ41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BR41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BS41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BT41" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BU41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BV41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BW41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BY41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BZ41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CA41" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CB41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CC41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CG41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CH41" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="2:86">
       <c r="B42" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H42" s="1">
         <v>6500</v>
@@ -7967,22 +7967,22 @@
         <v>14000</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="V42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="X42" s="1">
         <v>4</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB42" s="1">
         <v>210</v>
@@ -8005,7 +8005,7 @@
         <v>5193</v>
       </c>
       <c r="AL42" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BD42" s="1">
         <v>6.6150000000000002</v>
@@ -8026,13 +8026,13 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="BJ42" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BK42" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BL42" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BM42" s="1">
         <v>6.6150000000000002</v>
@@ -8041,67 +8041,67 @@
         <v>6.5</v>
       </c>
       <c r="BO42" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BP42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BQ42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BR42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BS42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BT42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BU42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BV42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BW42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BX42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BY42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BZ42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CA42" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CB42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CC42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CE42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CF42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CG42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CH42" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="43" spans="2:86">
+    <row r="43" spans="2:86" hidden="1">
       <c r="Q43" s="1">
         <v>1250</v>
       </c>
@@ -8111,10 +8111,10 @@
       </c>
       <c r="AF43" s="27"/>
       <c r="AL43" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="44" spans="2:86">
+    <row r="44" spans="2:86" hidden="1">
       <c r="Q44" s="1">
         <v>1250</v>
       </c>
@@ -8124,10 +8124,10 @@
       </c>
       <c r="AF44" s="27"/>
       <c r="AL44" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="45" spans="2:86">
+    <row r="45" spans="2:86" hidden="1">
       <c r="Q45" s="1">
         <v>1250</v>
       </c>
@@ -8137,10 +8137,10 @@
       </c>
       <c r="AF45" s="27"/>
       <c r="AL45" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="46" spans="2:86">
+    <row r="46" spans="2:86" hidden="1">
       <c r="Q46" s="1">
         <v>1250</v>
       </c>
@@ -8150,10 +8150,10 @@
       </c>
       <c r="AF46" s="27"/>
       <c r="AL46" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="47" spans="2:86">
+    <row r="47" spans="2:86" hidden="1">
       <c r="Q47" s="1">
         <v>1250</v>
       </c>
@@ -8163,10 +8163,10 @@
       </c>
       <c r="AF47" s="27"/>
       <c r="AL47" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="48" spans="2:86">
+    <row r="48" spans="2:86" hidden="1">
       <c r="Q48" s="1">
         <v>1250</v>
       </c>
@@ -8176,10 +8176,10 @@
       </c>
       <c r="AF48" s="27"/>
       <c r="AL48" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="49" spans="17:38">
+    <row r="49" spans="17:38" hidden="1">
       <c r="Q49" s="1">
         <v>1250</v>
       </c>
@@ -8189,10 +8189,10 @@
       </c>
       <c r="AF49" s="27"/>
       <c r="AL49" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="50" spans="17:38">
+    <row r="50" spans="17:38" hidden="1">
       <c r="Q50" s="1">
         <v>1250</v>
       </c>
@@ -8202,10 +8202,10 @@
       </c>
       <c r="AF50" s="27"/>
       <c r="AL50" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="51" spans="17:38">
+    <row r="51" spans="17:38" hidden="1">
       <c r="Q51" s="1">
         <v>1250</v>
       </c>
@@ -8215,10 +8215,10 @@
       </c>
       <c r="AF51" s="27"/>
       <c r="AL51" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="52" spans="17:38">
+    <row r="52" spans="17:38" hidden="1">
       <c r="Q52" s="1">
         <v>1250</v>
       </c>
@@ -8228,10 +8228,10 @@
       </c>
       <c r="AF52" s="27"/>
       <c r="AL52" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="53" spans="17:38">
+    <row r="53" spans="17:38" hidden="1">
       <c r="Q53" s="1">
         <v>1250</v>
       </c>
@@ -8241,10 +8241,10 @@
       </c>
       <c r="AF53" s="27"/>
       <c r="AL53" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="54" spans="17:38">
+    <row r="54" spans="17:38" hidden="1">
       <c r="Q54" s="1">
         <v>1250</v>
       </c>
@@ -8254,10 +8254,10 @@
       </c>
       <c r="AF54" s="27"/>
       <c r="AL54" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="55" spans="17:38">
+    <row r="55" spans="17:38" hidden="1">
       <c r="Q55" s="1">
         <v>1250</v>
       </c>
@@ -8267,10 +8267,10 @@
       </c>
       <c r="AF55" s="27"/>
       <c r="AL55" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="56" spans="17:38">
+    <row r="56" spans="17:38" hidden="1">
       <c r="Q56" s="1">
         <v>1250</v>
       </c>
@@ -8280,10 +8280,10 @@
       </c>
       <c r="AF56" s="27"/>
       <c r="AL56" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="57" spans="17:38">
+    <row r="57" spans="17:38" hidden="1">
       <c r="Q57" s="1">
         <v>1250</v>
       </c>
@@ -8293,10 +8293,10 @@
       </c>
       <c r="AF57" s="27"/>
       <c r="AL57" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="58" spans="17:38">
+    <row r="58" spans="17:38" hidden="1">
       <c r="Q58" s="1">
         <v>1250</v>
       </c>
@@ -8306,10 +8306,10 @@
       </c>
       <c r="AF58" s="27"/>
       <c r="AL58" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="59" spans="17:38">
+    <row r="59" spans="17:38" hidden="1">
       <c r="Q59" s="1">
         <v>1250</v>
       </c>
@@ -8319,10 +8319,10 @@
       </c>
       <c r="AF59" s="27"/>
       <c r="AL59" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="60" spans="17:38">
+    <row r="60" spans="17:38" hidden="1">
       <c r="Q60" s="1">
         <v>1250</v>
       </c>
@@ -8332,10 +8332,10 @@
       </c>
       <c r="AF60" s="27"/>
       <c r="AL60" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="61" spans="17:38">
+    <row r="61" spans="17:38" hidden="1">
       <c r="Q61" s="1">
         <v>1250</v>
       </c>
@@ -8345,10 +8345,10 @@
       </c>
       <c r="AF61" s="27"/>
       <c r="AL61" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="62" spans="17:38">
+    <row r="62" spans="17:38" hidden="1">
       <c r="Q62" s="1">
         <v>1250</v>
       </c>
@@ -8358,10 +8358,10 @@
       </c>
       <c r="AF62" s="27"/>
       <c r="AL62" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="63" spans="17:38">
+    <row r="63" spans="17:38" hidden="1">
       <c r="Q63" s="1">
         <v>1250</v>
       </c>
@@ -8371,10 +8371,10 @@
       </c>
       <c r="AF63" s="27"/>
       <c r="AL63" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="64" spans="17:38">
+    <row r="64" spans="17:38" hidden="1">
       <c r="Q64" s="1">
         <v>1250</v>
       </c>
@@ -8384,10 +8384,10 @@
       </c>
       <c r="AF64" s="27"/>
       <c r="AL64" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="65" spans="2:38">
+    <row r="65" spans="2:38" hidden="1">
       <c r="Q65" s="1">
         <v>1250</v>
       </c>
@@ -8397,10 +8397,10 @@
       </c>
       <c r="AF65" s="27"/>
       <c r="AL65" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="66" spans="2:38">
+    <row r="66" spans="2:38" hidden="1">
       <c r="Q66" s="1">
         <v>1250</v>
       </c>
@@ -8410,10 +8410,10 @@
       </c>
       <c r="AF66" s="27"/>
       <c r="AL66" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="67" spans="2:38">
+    <row r="67" spans="2:38" hidden="1">
       <c r="Q67" s="1">
         <v>1250</v>
       </c>
@@ -8423,7 +8423,7 @@
       </c>
       <c r="AF67" s="27"/>
       <c r="AL67" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="2:38" hidden="1">
@@ -8557,13 +8557,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B5:CB87">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+  <autoFilter ref="B5:CH87">
+    <filterColumn colId="65">
+      <filters>
+        <filter val="YES"/>
+      </filters>
     </filterColumn>
   </autoFilter>
+  <sortState ref="CC5:CH6">
+    <sortCondition ref="CC6"/>
+  </sortState>
   <mergeCells count="2">
     <mergeCell ref="B1:CB1"/>
     <mergeCell ref="B2:CB2"/>

--- a/ISUZU TRUCK DATABASE - TKZ.xlsx
+++ b/ISUZU TRUCK DATABASE - TKZ.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MT IAMI 2021\OJT1 R&amp;D\"/>
@@ -1116,14 +1116,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:CH87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="BT31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="CC38" sqref="CC38"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1133,8 +1133,8 @@
     <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
     <col min="8" max="12" width="9.140625" style="1"/>
     <col min="13" max="19" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="9.140625" style="1"/>
@@ -1704,7 +1704,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="2:86" hidden="1">
+    <row r="6" spans="2:86">
       <c r="B6" s="1" t="s">
         <v>98</v>
       </c>
@@ -2067,6 +2067,9 @@
       <c r="E8" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="F8" s="1">
+        <v>102</v>
+      </c>
       <c r="H8" s="1">
         <v>2490</v>
       </c>
@@ -2226,7 +2229,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="2:86" hidden="1">
+    <row r="9" spans="2:86">
       <c r="B9" s="1" t="s">
         <v>98</v>
       </c>
@@ -2238,6 +2241,9 @@
       </c>
       <c r="E9" s="1" t="s">
         <v>105</v>
+      </c>
+      <c r="F9" s="1">
+        <v>109</v>
       </c>
       <c r="H9" s="1">
         <v>2490</v>
@@ -2411,6 +2417,9 @@
       <c r="E10" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="F10" s="1">
+        <v>109</v>
+      </c>
       <c r="H10" s="1">
         <v>3360</v>
       </c>
@@ -2583,6 +2592,9 @@
       <c r="E11" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="F11" s="1">
+        <v>125</v>
+      </c>
       <c r="H11" s="1">
         <v>2490</v>
       </c>
@@ -2742,7 +2754,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="2:86" hidden="1">
+    <row r="12" spans="2:86">
       <c r="B12" s="1" t="s">
         <v>98</v>
       </c>
@@ -2754,6 +2766,9 @@
       </c>
       <c r="E12" s="1" t="s">
         <v>108</v>
+      </c>
+      <c r="F12" s="1">
+        <v>125</v>
       </c>
       <c r="H12" s="1">
         <v>3360</v>
@@ -2927,6 +2942,9 @@
       <c r="E13" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="F13" s="1">
+        <v>107</v>
+      </c>
       <c r="H13" s="1">
         <v>3360</v>
       </c>
@@ -3099,6 +3117,9 @@
       <c r="E14" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="F14" s="1">
+        <v>107</v>
+      </c>
       <c r="H14" s="1">
         <v>4175</v>
       </c>
@@ -3271,6 +3292,9 @@
       <c r="E15" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="F15" s="1">
+        <v>103</v>
+      </c>
       <c r="H15" s="1">
         <v>3360</v>
       </c>
@@ -3443,6 +3467,9 @@
       <c r="E16" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="F16" s="1">
+        <v>99</v>
+      </c>
       <c r="H16" s="1">
         <v>3360</v>
       </c>
@@ -3602,7 +3629,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="2:86" hidden="1">
+    <row r="17" spans="2:86">
       <c r="B17" s="1" t="s">
         <v>98</v>
       </c>
@@ -3614,6 +3641,9 @@
       </c>
       <c r="E17" s="1" t="s">
         <v>113</v>
+      </c>
+      <c r="F17" s="1">
+        <v>110</v>
       </c>
       <c r="H17" s="1">
         <v>4175</v>
@@ -3774,7 +3804,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="2:86" hidden="1">
+    <row r="18" spans="2:86">
       <c r="B18" s="1" t="s">
         <v>98</v>
       </c>
@@ -3786,6 +3816,9 @@
       </c>
       <c r="E18" s="1" t="s">
         <v>116</v>
+      </c>
+      <c r="F18" s="1">
+        <v>102</v>
       </c>
       <c r="H18" s="1">
         <v>2490</v>
@@ -3946,7 +3979,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="2:86" hidden="1">
+    <row r="19" spans="2:86">
       <c r="B19" s="1" t="s">
         <v>98</v>
       </c>
@@ -3958,6 +3991,9 @@
       </c>
       <c r="E19" s="1" t="s">
         <v>118</v>
+      </c>
+      <c r="F19" s="1">
+        <v>108</v>
       </c>
       <c r="H19" s="1">
         <v>2490</v>
@@ -4118,7 +4154,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="2:86" hidden="1">
+    <row r="20" spans="2:86">
       <c r="B20" s="1" t="s">
         <v>98</v>
       </c>
@@ -4130,6 +4166,9 @@
       </c>
       <c r="E20" s="1" t="s">
         <v>117</v>
+      </c>
+      <c r="F20" s="1">
+        <v>108</v>
       </c>
       <c r="H20" s="1">
         <v>3360</v>
@@ -4290,7 +4329,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="2:86" hidden="1">
+    <row r="21" spans="2:86">
       <c r="B21" s="1" t="s">
         <v>98</v>
       </c>
@@ -4302,6 +4341,9 @@
       </c>
       <c r="E21" s="1" t="s">
         <v>119</v>
+      </c>
+      <c r="F21" s="1">
+        <v>125</v>
       </c>
       <c r="H21" s="1">
         <v>3360</v>
@@ -4462,7 +4504,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="2:86" hidden="1">
+    <row r="22" spans="2:86">
       <c r="B22" s="1" t="s">
         <v>98</v>
       </c>
@@ -4474,6 +4516,9 @@
       </c>
       <c r="E22" s="1" t="s">
         <v>121</v>
+      </c>
+      <c r="F22" s="1">
+        <v>110</v>
       </c>
       <c r="H22" s="1">
         <v>3395</v>
@@ -4647,6 +4692,9 @@
       <c r="E23" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="F23" s="1">
+        <v>89</v>
+      </c>
       <c r="H23" s="1">
         <v>4300</v>
       </c>
@@ -4819,6 +4867,9 @@
       <c r="E24" s="1" t="s">
         <v>128</v>
       </c>
+      <c r="F24" s="1">
+        <v>89</v>
+      </c>
       <c r="H24" s="1">
         <v>5060</v>
       </c>
@@ -4991,6 +5042,9 @@
       <c r="E25" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="F25" s="1">
+        <v>85</v>
+      </c>
       <c r="H25" s="1">
         <v>5060</v>
       </c>
@@ -5163,6 +5217,9 @@
       <c r="E26" s="1" t="s">
         <v>130</v>
       </c>
+      <c r="F26" s="1">
+        <v>89</v>
+      </c>
       <c r="H26" s="1">
         <v>5560</v>
       </c>
@@ -5335,6 +5392,9 @@
       <c r="E27" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="F27" s="1">
+        <v>89</v>
+      </c>
       <c r="H27" s="1">
         <v>6160</v>
       </c>
@@ -5507,6 +5567,9 @@
       <c r="E28" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="F28" s="1">
+        <v>89</v>
+      </c>
       <c r="H28" s="1">
         <v>6600</v>
       </c>
@@ -5679,6 +5742,9 @@
       <c r="E29" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="F29" s="1">
+        <v>94</v>
+      </c>
       <c r="H29" s="1">
         <v>4115</v>
       </c>
@@ -5854,6 +5920,9 @@
       <c r="E30" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="F30" s="1">
+        <v>94</v>
+      </c>
       <c r="H30" s="1">
         <v>5825</v>
       </c>
@@ -6029,6 +6098,9 @@
       <c r="E31" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="F31" s="1">
+        <v>87</v>
+      </c>
       <c r="H31" s="1">
         <v>5825</v>
       </c>
@@ -6204,6 +6276,9 @@
       <c r="E32" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="F32" s="1">
+        <v>87</v>
+      </c>
       <c r="H32" s="1">
         <v>4965</v>
       </c>
@@ -6379,6 +6454,9 @@
       <c r="E33" s="1" t="s">
         <v>139</v>
       </c>
+      <c r="F33" s="1">
+        <v>83</v>
+      </c>
       <c r="H33" s="1">
         <v>4115</v>
       </c>
@@ -6554,6 +6632,9 @@
       <c r="E34" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="F34" s="1">
+        <v>83</v>
+      </c>
       <c r="H34" s="1">
         <v>5825</v>
       </c>
@@ -6716,7 +6797,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="2:86" hidden="1">
+    <row r="35" spans="2:86">
       <c r="B35" s="1" t="s">
         <v>98</v>
       </c>
@@ -6728,6 +6809,9 @@
       </c>
       <c r="E35" s="1" t="s">
         <v>141</v>
+      </c>
+      <c r="F35" s="1">
+        <v>83</v>
       </c>
       <c r="H35" s="1">
         <v>3565</v>
@@ -6904,6 +6988,9 @@
       <c r="E36" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="F36" s="1">
+        <v>90</v>
+      </c>
       <c r="H36" s="1">
         <v>3560</v>
       </c>
@@ -7076,6 +7163,9 @@
       <c r="E37" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="F37" s="1">
+        <v>98.7</v>
+      </c>
       <c r="H37" s="1">
         <v>3560</v>
       </c>
@@ -7248,6 +7338,9 @@
       <c r="E38" s="1" t="s">
         <v>146</v>
       </c>
+      <c r="F38" s="1">
+        <v>83.7</v>
+      </c>
       <c r="H38" s="1">
         <v>3265</v>
       </c>
@@ -7423,6 +7516,9 @@
       <c r="E39" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="F39" s="1">
+        <v>107</v>
+      </c>
       <c r="H39" s="1">
         <v>3265</v>
       </c>
@@ -7598,6 +7694,9 @@
       <c r="E40" s="1" t="s">
         <v>149</v>
       </c>
+      <c r="F40" s="1">
+        <v>107</v>
+      </c>
       <c r="H40" s="1">
         <v>5320</v>
       </c>
@@ -7770,6 +7869,9 @@
       <c r="E41" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="F41" s="1">
+        <v>107</v>
+      </c>
       <c r="H41" s="1">
         <v>6050</v>
       </c>
@@ -7942,6 +8044,9 @@
       <c r="E42" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="F42" s="1">
+        <v>107</v>
+      </c>
       <c r="H42" s="1">
         <v>6500</v>
       </c>
@@ -8101,7 +8206,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="2:86" hidden="1">
+    <row r="43" spans="2:86">
       <c r="Q43" s="1">
         <v>1250</v>
       </c>
@@ -8114,7 +8219,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="2:86" hidden="1">
+    <row r="44" spans="2:86">
       <c r="Q44" s="1">
         <v>1250</v>
       </c>
@@ -8127,7 +8232,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="2:86" hidden="1">
+    <row r="45" spans="2:86">
       <c r="Q45" s="1">
         <v>1250</v>
       </c>
@@ -8140,7 +8245,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="2:86" hidden="1">
+    <row r="46" spans="2:86">
       <c r="Q46" s="1">
         <v>1250</v>
       </c>
@@ -8153,7 +8258,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="2:86" hidden="1">
+    <row r="47" spans="2:86">
       <c r="Q47" s="1">
         <v>1250</v>
       </c>
@@ -8166,7 +8271,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="2:86" hidden="1">
+    <row r="48" spans="2:86">
       <c r="Q48" s="1">
         <v>1250</v>
       </c>
@@ -8179,7 +8284,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="17:38" hidden="1">
+    <row r="49" spans="17:38">
       <c r="Q49" s="1">
         <v>1250</v>
       </c>
@@ -8192,7 +8297,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="17:38" hidden="1">
+    <row r="50" spans="17:38">
       <c r="Q50" s="1">
         <v>1250</v>
       </c>
@@ -8205,7 +8310,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="17:38" hidden="1">
+    <row r="51" spans="17:38">
       <c r="Q51" s="1">
         <v>1250</v>
       </c>
@@ -8218,7 +8323,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="17:38" hidden="1">
+    <row r="52" spans="17:38">
       <c r="Q52" s="1">
         <v>1250</v>
       </c>
@@ -8231,7 +8336,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="17:38" hidden="1">
+    <row r="53" spans="17:38">
       <c r="Q53" s="1">
         <v>1250</v>
       </c>
@@ -8244,7 +8349,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="17:38" hidden="1">
+    <row r="54" spans="17:38">
       <c r="Q54" s="1">
         <v>1250</v>
       </c>
@@ -8257,7 +8362,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="17:38" hidden="1">
+    <row r="55" spans="17:38">
       <c r="Q55" s="1">
         <v>1250</v>
       </c>
@@ -8270,7 +8375,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="17:38" hidden="1">
+    <row r="56" spans="17:38">
       <c r="Q56" s="1">
         <v>1250</v>
       </c>
@@ -8283,7 +8388,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="17:38" hidden="1">
+    <row r="57" spans="17:38">
       <c r="Q57" s="1">
         <v>1250</v>
       </c>
@@ -8296,7 +8401,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="17:38" hidden="1">
+    <row r="58" spans="17:38">
       <c r="Q58" s="1">
         <v>1250</v>
       </c>
@@ -8309,7 +8414,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="17:38" hidden="1">
+    <row r="59" spans="17:38">
       <c r="Q59" s="1">
         <v>1250</v>
       </c>
@@ -8322,7 +8427,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="17:38" hidden="1">
+    <row r="60" spans="17:38">
       <c r="Q60" s="1">
         <v>1250</v>
       </c>
@@ -8335,7 +8440,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="17:38" hidden="1">
+    <row r="61" spans="17:38">
       <c r="Q61" s="1">
         <v>1250</v>
       </c>
@@ -8348,7 +8453,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="17:38" hidden="1">
+    <row r="62" spans="17:38">
       <c r="Q62" s="1">
         <v>1250</v>
       </c>
@@ -8361,7 +8466,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="17:38" hidden="1">
+    <row r="63" spans="17:38">
       <c r="Q63" s="1">
         <v>1250</v>
       </c>
@@ -8374,7 +8479,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="17:38" hidden="1">
+    <row r="64" spans="17:38">
       <c r="Q64" s="1">
         <v>1250</v>
       </c>
@@ -8387,7 +8492,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="2:38" hidden="1">
+    <row r="65" spans="2:38">
       <c r="Q65" s="1">
         <v>1250</v>
       </c>
@@ -8400,7 +8505,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="2:38" hidden="1">
+    <row r="66" spans="2:38">
       <c r="Q66" s="1">
         <v>1250</v>
       </c>
@@ -8413,7 +8518,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="2:38" hidden="1">
+    <row r="67" spans="2:38">
       <c r="Q67" s="1">
         <v>1250</v>
       </c>
@@ -8426,7 +8531,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="2:38" hidden="1">
+    <row r="68" spans="2:38">
       <c r="B68" s="1" t="s">
         <v>26</v>
       </c>
@@ -8434,7 +8539,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="2:38" hidden="1">
+    <row r="69" spans="2:38">
       <c r="B69" s="1" t="s">
         <v>26</v>
       </c>
@@ -8442,7 +8547,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="2:38" hidden="1">
+    <row r="70" spans="2:38">
       <c r="B70" s="1" t="s">
         <v>26</v>
       </c>
@@ -8450,7 +8555,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="2:38" hidden="1">
+    <row r="71" spans="2:38">
       <c r="B71" s="1" t="s">
         <v>26</v>
       </c>
@@ -8458,7 +8563,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="2:38" hidden="1">
+    <row r="72" spans="2:38">
       <c r="B72" s="1" t="s">
         <v>26</v>
       </c>
@@ -8466,7 +8571,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="2:38" hidden="1">
+    <row r="73" spans="2:38">
       <c r="B73" s="1" t="s">
         <v>26</v>
       </c>
@@ -8474,7 +8579,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="2:38" hidden="1">
+    <row r="74" spans="2:38">
       <c r="B74" s="1" t="s">
         <v>26</v>
       </c>
@@ -8482,7 +8587,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="2:38" hidden="1">
+    <row r="75" spans="2:38">
       <c r="B75" s="1" t="s">
         <v>26</v>
       </c>
@@ -8490,7 +8595,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="2:38" hidden="1">
+    <row r="76" spans="2:38">
       <c r="B76" s="1" t="s">
         <v>26</v>
       </c>
@@ -8498,7 +8603,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="2:38" hidden="1">
+    <row r="77" spans="2:38">
       <c r="B77" s="1" t="s">
         <v>26</v>
       </c>
@@ -8506,64 +8611,58 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="2:38" hidden="1">
+    <row r="78" spans="2:38">
       <c r="B78" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="2:38" hidden="1">
+    <row r="79" spans="2:38">
       <c r="B79" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="2:38" hidden="1">
+    <row r="80" spans="2:38">
       <c r="B80" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="2:2" hidden="1">
+    <row r="81" spans="2:2">
       <c r="B81" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="2:2" hidden="1">
+    <row r="82" spans="2:2">
       <c r="B82" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="2:2" hidden="1">
+    <row r="83" spans="2:2">
       <c r="B83" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="2:2" hidden="1">
+    <row r="84" spans="2:2">
       <c r="B84" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="2:2" hidden="1">
+    <row r="85" spans="2:2">
       <c r="B85" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="2:2" hidden="1">
+    <row r="86" spans="2:2">
       <c r="B86" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="2:2" hidden="1">
+    <row r="87" spans="2:2">
       <c r="B87" s="1" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B5:CH87">
-    <filterColumn colId="65">
-      <filters>
-        <filter val="YES"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B5:CH87"/>
   <sortState ref="CC5:CH6">
     <sortCondition ref="CC6"/>
   </sortState>

--- a/ISUZU TRUCK DATABASE - TKZ.xlsx
+++ b/ISUZU TRUCK DATABASE - TKZ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kerja\MT\Research and Development\Isuzu Product Line Up\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\irfan.satria\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="213">
   <si>
     <t>Naming</t>
   </si>
@@ -1218,7 +1218,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1408,7 +1407,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1529,7 +1527,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2486,7 +2483,7 @@
   <dimension ref="B1:CH87"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="U15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="AB17" sqref="AB17:AB21"/>
@@ -10049,10 +10046,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:G22"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10078,7 +10075,7 @@
         <v>24</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>70</v>
@@ -10133,27 +10130,50 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="47.25">
-      <c r="A5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>80</v>
+    <row r="4" spans="1:7" ht="15.75">
+      <c r="A4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5100</v>
+      </c>
+      <c r="G4" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75">
+      <c r="A5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5100</v>
+      </c>
+      <c r="G5" s="1">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75">
@@ -10167,7 +10187,7 @@
         <v>102</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>36</v>
@@ -10190,7 +10210,7 @@
         <v>102</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>36</v>
@@ -10199,7 +10219,7 @@
         <v>5100</v>
       </c>
       <c r="G7" s="1">
-        <v>100</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75">
@@ -10213,7 +10233,7 @@
         <v>102</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>36</v>
@@ -10222,7 +10242,7 @@
         <v>5100</v>
       </c>
       <c r="G8" s="1">
-        <v>100</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75">
@@ -10236,13 +10256,13 @@
         <v>102</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="F9" s="1">
-        <v>5100</v>
+        <v>8250</v>
       </c>
       <c r="G9" s="1">
         <v>125</v>
@@ -10259,13 +10279,13 @@
         <v>102</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="F10" s="1">
-        <v>5100</v>
+        <v>8000</v>
       </c>
       <c r="G10" s="1">
         <v>125</v>
@@ -10282,7 +10302,7 @@
         <v>102</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>69</v>
@@ -10305,13 +10325,13 @@
         <v>102</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F12" s="1">
-        <v>8000</v>
+        <v>8250</v>
       </c>
       <c r="G12" s="1">
         <v>125</v>
@@ -10328,16 +10348,16 @@
         <v>102</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="F13" s="1">
-        <v>8250</v>
+        <v>6000</v>
       </c>
       <c r="G13" s="1">
-        <v>125</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75">
@@ -10345,19 +10365,19 @@
         <v>97</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F14" s="1">
-        <v>8250</v>
+        <v>8000</v>
       </c>
       <c r="G14" s="1">
         <v>125</v>
@@ -10368,45 +10388,68 @@
         <v>97</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="F15" s="1">
-        <v>6000</v>
+        <v>5100</v>
       </c>
       <c r="G15" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="47.25">
-      <c r="A17" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>80</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75">
+      <c r="A16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5100</v>
+      </c>
+      <c r="G16" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75">
+      <c r="A17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5100</v>
+      </c>
+      <c r="G17" s="1">
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75">
@@ -10414,19 +10457,19 @@
         <v>97</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F18" s="1">
-        <v>8000</v>
+        <v>5100</v>
       </c>
       <c r="G18" s="1">
         <v>125</v>
@@ -10437,22 +10480,22 @@
         <v>97</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>158</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>36</v>
+        <v>207</v>
       </c>
       <c r="F19" s="1">
-        <v>5100</v>
+        <v>16000</v>
       </c>
       <c r="G19" s="1">
-        <v>100</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75">
@@ -10460,22 +10503,22 @@
         <v>97</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>158</v>
+        <v>63</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>36</v>
+        <v>207</v>
       </c>
       <c r="F20" s="1">
-        <v>5100</v>
+        <v>16000</v>
       </c>
       <c r="G20" s="1">
-        <v>100</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75">
@@ -10483,22 +10526,22 @@
         <v>97</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>158</v>
+        <v>63</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>36</v>
+        <v>207</v>
       </c>
       <c r="F21" s="1">
-        <v>5100</v>
+        <v>16000</v>
       </c>
       <c r="G21" s="1">
-        <v>125</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75">
@@ -10506,45 +10549,68 @@
         <v>97</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>158</v>
+        <v>63</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>36</v>
+        <v>207</v>
       </c>
       <c r="F22" s="1">
-        <v>5100</v>
+        <v>16000</v>
       </c>
       <c r="G22" s="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75">
+      <c r="A23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="47.25">
-      <c r="A24" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>80</v>
+      <c r="D23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F23" s="1">
+        <v>16000</v>
+      </c>
+      <c r="G23" s="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75">
+      <c r="A24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F24" s="1">
+        <v>16000</v>
+      </c>
+      <c r="G24" s="1">
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75">
@@ -10558,13 +10624,13 @@
         <v>125</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>207</v>
+        <v>134</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>208</v>
       </c>
       <c r="F25" s="1">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="G25" s="1">
         <v>245</v>
@@ -10581,13 +10647,13 @@
         <v>125</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>207</v>
+        <v>135</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>208</v>
       </c>
       <c r="F26" s="1">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="G26" s="1">
         <v>245</v>
@@ -10604,13 +10670,13 @@
         <v>125</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>207</v>
+        <v>136</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>208</v>
       </c>
       <c r="F27" s="1">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="G27" s="1">
         <v>245</v>
@@ -10627,13 +10693,13 @@
         <v>125</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>207</v>
+        <v>137</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>208</v>
       </c>
       <c r="F28" s="1">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="G28" s="1">
         <v>245</v>
@@ -10650,16 +10716,16 @@
         <v>125</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>207</v>
+        <v>138</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>209</v>
       </c>
       <c r="F29" s="1">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="G29" s="1">
-        <v>245</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75">
@@ -10673,16 +10739,16 @@
         <v>125</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>207</v>
+        <v>139</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>209</v>
       </c>
       <c r="F30" s="1">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="G30" s="1">
-        <v>245</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75">
@@ -10696,16 +10762,16 @@
         <v>125</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F31" s="1">
         <v>26000</v>
       </c>
       <c r="G31" s="1">
-        <v>245</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75">
@@ -10719,13 +10785,13 @@
         <v>125</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E32" s="40" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F32" s="1">
-        <v>26000</v>
+        <v>32700</v>
       </c>
       <c r="G32" s="1">
         <v>245</v>
@@ -10742,16 +10808,16 @@
         <v>125</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F33" s="1">
-        <v>26000</v>
+        <v>38100</v>
       </c>
       <c r="G33" s="1">
-        <v>245</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75">
@@ -10765,16 +10831,16 @@
         <v>125</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E34" s="40" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F34" s="1">
-        <v>26000</v>
+        <v>38100</v>
       </c>
       <c r="G34" s="1">
-        <v>245</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75">
@@ -10788,16 +10854,16 @@
         <v>125</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E35" s="40" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F35" s="1">
-        <v>26000</v>
+        <v>46100</v>
       </c>
       <c r="G35" s="1">
-        <v>285</v>
+        <v>345</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75">
@@ -10811,16 +10877,16 @@
         <v>125</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E36" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="F36" s="1">
-        <v>26000</v>
+        <v>210</v>
+      </c>
+      <c r="F36" s="40">
+        <v>10000</v>
       </c>
       <c r="G36" s="1">
-        <v>285</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75">
@@ -10834,16 +10900,16 @@
         <v>125</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E37" s="40" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F37" s="1">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="G37" s="1">
-        <v>285</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75">
@@ -10857,153 +10923,15 @@
         <v>125</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F38" s="1">
-        <v>32700</v>
+        <v>14000</v>
       </c>
       <c r="G38" s="1">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75">
-      <c r="A39" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E39" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="F39" s="1">
-        <v>38100</v>
-      </c>
-      <c r="G39" s="1">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75">
-      <c r="A40" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E40" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="F40" s="1">
-        <v>38100</v>
-      </c>
-      <c r="G40" s="1">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75">
-      <c r="A41" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E41" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="F41" s="1">
-        <v>46100</v>
-      </c>
-      <c r="G41" s="1">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75">
-      <c r="A42" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E42" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="F42" s="40">
-        <v>10000</v>
-      </c>
-      <c r="G42" s="1">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75">
-      <c r="A43" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E43" s="40" t="s">
-        <v>211</v>
-      </c>
-      <c r="F43" s="1">
-        <v>14000</v>
-      </c>
-      <c r="G43" s="1">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.75">
-      <c r="A44" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E44" s="40" t="s">
-        <v>211</v>
-      </c>
-      <c r="F44" s="1">
-        <v>14000</v>
-      </c>
-      <c r="G44" s="1">
         <v>210</v>
       </c>
     </row>

--- a/ISUZU TRUCK DATABASE - TKZ.xlsx
+++ b/ISUZU TRUCK DATABASE - TKZ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\irfan.satria\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kerja\MT\Research and Development\Isuzu Product Line Up\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="213">
   <si>
     <t>Naming</t>
   </si>
@@ -1218,6 +1218,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1407,6 +1408,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1527,6 +1529,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2479,14 +2482,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B1:CH87"/>
+  <dimension ref="B1:CH67"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AB17" sqref="AB17:AB21"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23:H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3061,7 +3063,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="2:86" hidden="1">
+    <row r="6" spans="2:86">
       <c r="B6" s="1" t="s">
         <v>97</v>
       </c>
@@ -3242,7 +3244,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="2:86" hidden="1">
+    <row r="7" spans="2:86">
       <c r="B7" s="1" t="s">
         <v>97</v>
       </c>
@@ -6183,7 +6185,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="2:86" hidden="1">
+    <row r="23" spans="2:86">
       <c r="B23" s="1" t="s">
         <v>97</v>
       </c>
@@ -6364,7 +6366,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="2:86" hidden="1">
+    <row r="24" spans="2:86">
       <c r="B24" s="1" t="s">
         <v>97</v>
       </c>
@@ -6545,7 +6547,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="2:86" hidden="1">
+    <row r="25" spans="2:86">
       <c r="B25" s="1" t="s">
         <v>97</v>
       </c>
@@ -6726,7 +6728,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="2:86" hidden="1">
+    <row r="26" spans="2:86">
       <c r="B26" s="1" t="s">
         <v>97</v>
       </c>
@@ -6907,7 +6909,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="2:86" hidden="1">
+    <row r="27" spans="2:86">
       <c r="B27" s="1" t="s">
         <v>97</v>
       </c>
@@ -7088,7 +7090,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="2:86" hidden="1">
+    <row r="28" spans="2:86">
       <c r="B28" s="1" t="s">
         <v>97</v>
       </c>
@@ -7269,7 +7271,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="2:86" hidden="1">
+    <row r="29" spans="2:86">
       <c r="B29" s="1" t="s">
         <v>97</v>
       </c>
@@ -7453,7 +7455,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="2:86" hidden="1">
+    <row r="30" spans="2:86">
       <c r="B30" s="1" t="s">
         <v>97</v>
       </c>
@@ -7637,7 +7639,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="2:86" hidden="1">
+    <row r="31" spans="2:86">
       <c r="B31" s="1" t="s">
         <v>97</v>
       </c>
@@ -7821,7 +7823,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="2:86" hidden="1">
+    <row r="32" spans="2:86">
       <c r="B32" s="1" t="s">
         <v>97</v>
       </c>
@@ -8005,7 +8007,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="2:86" hidden="1">
+    <row r="33" spans="2:86">
       <c r="B33" s="1" t="s">
         <v>97</v>
       </c>
@@ -8189,7 +8191,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="2:86" hidden="1">
+    <row r="34" spans="2:86">
       <c r="B34" s="1" t="s">
         <v>97</v>
       </c>
@@ -8373,7 +8375,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="2:86" hidden="1">
+    <row r="35" spans="2:86">
       <c r="B35" s="1" t="s">
         <v>97</v>
       </c>
@@ -8557,7 +8559,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="2:86" hidden="1">
+    <row r="36" spans="2:86">
       <c r="B36" s="1" t="s">
         <v>97</v>
       </c>
@@ -8738,7 +8740,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="2:86" hidden="1">
+    <row r="37" spans="2:86">
       <c r="B37" s="1" t="s">
         <v>97</v>
       </c>
@@ -8919,7 +8921,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="2:86" hidden="1">
+    <row r="38" spans="2:86">
       <c r="B38" s="1" t="s">
         <v>97</v>
       </c>
@@ -9103,7 +9105,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="2:86" hidden="1">
+    <row r="39" spans="2:86">
       <c r="B39" s="1" t="s">
         <v>97</v>
       </c>
@@ -9287,7 +9289,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="2:86" hidden="1">
+    <row r="40" spans="2:86">
       <c r="B40" s="1" t="s">
         <v>97</v>
       </c>
@@ -9468,7 +9470,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="2:86" hidden="1">
+    <row r="41" spans="2:86">
       <c r="B41" s="1" t="s">
         <v>97</v>
       </c>
@@ -9649,7 +9651,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="2:86" hidden="1">
+    <row r="42" spans="2:86">
       <c r="B42" s="1" t="s">
         <v>97</v>
       </c>
@@ -9830,7 +9832,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="2:86" hidden="1">
+    <row r="43" spans="2:86">
       <c r="Q43" s="1">
         <v>1250</v>
       </c>
@@ -9839,7 +9841,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="2:86" hidden="1">
+    <row r="44" spans="2:86">
       <c r="Q44" s="1">
         <v>1250</v>
       </c>
@@ -9848,7 +9850,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="2:86" hidden="1">
+    <row r="45" spans="2:86">
       <c r="Q45" s="1">
         <v>1250</v>
       </c>
@@ -9857,7 +9859,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="2:86" hidden="1">
+    <row r="46" spans="2:86">
       <c r="Q46" s="1">
         <v>1250</v>
       </c>
@@ -9866,7 +9868,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="2:86" hidden="1">
+    <row r="47" spans="2:86">
       <c r="Q47" s="1">
         <v>1250</v>
       </c>
@@ -9875,7 +9877,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="2:86" hidden="1">
+    <row r="48" spans="2:86">
       <c r="Q48" s="1">
         <v>1250</v>
       </c>
@@ -9884,7 +9886,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="17:38" hidden="1">
+    <row r="49" spans="17:38">
       <c r="Q49" s="1">
         <v>1250</v>
       </c>
@@ -9893,7 +9895,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="17:38" hidden="1">
+    <row r="50" spans="17:38">
       <c r="Q50" s="1">
         <v>1250</v>
       </c>
@@ -9902,7 +9904,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="17:38" hidden="1">
+    <row r="51" spans="17:38">
       <c r="Q51" s="1">
         <v>1250</v>
       </c>
@@ -9911,7 +9913,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="17:38" hidden="1">
+    <row r="52" spans="17:38">
       <c r="Q52" s="1">
         <v>1250</v>
       </c>
@@ -9920,7 +9922,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="17:38" hidden="1">
+    <row r="53" spans="17:38">
       <c r="Q53" s="1">
         <v>1250</v>
       </c>
@@ -9929,7 +9931,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="17:38" hidden="1">
+    <row r="54" spans="17:38">
       <c r="Q54" s="1">
         <v>1250</v>
       </c>
@@ -9938,7 +9940,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="17:38" hidden="1">
+    <row r="55" spans="17:38">
       <c r="Q55" s="1">
         <v>1250</v>
       </c>
@@ -9947,7 +9949,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="17:38" hidden="1">
+    <row r="56" spans="17:38">
       <c r="Q56" s="1">
         <v>1250</v>
       </c>
@@ -9956,7 +9958,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="17:38" hidden="1">
+    <row r="57" spans="17:38">
       <c r="Q57" s="1">
         <v>1250</v>
       </c>
@@ -9965,7 +9967,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="17:38" hidden="1">
+    <row r="58" spans="17:38">
       <c r="Q58" s="1">
         <v>1250</v>
       </c>
@@ -9974,7 +9976,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="17:38" hidden="1">
+    <row r="59" spans="17:38">
       <c r="Q59" s="1">
         <v>1250</v>
       </c>
@@ -9983,58 +9985,32 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="17:38" hidden="1">
+    <row r="60" spans="17:38">
       <c r="AF60" s="27"/>
     </row>
-    <row r="61" spans="17:38" hidden="1">
+    <row r="61" spans="17:38">
       <c r="AF61" s="27"/>
     </row>
-    <row r="62" spans="17:38" hidden="1">
+    <row r="62" spans="17:38">
       <c r="AF62" s="27"/>
     </row>
-    <row r="63" spans="17:38" hidden="1">
+    <row r="63" spans="17:38">
       <c r="AF63" s="27"/>
     </row>
-    <row r="64" spans="17:38" hidden="1">
+    <row r="64" spans="17:38">
       <c r="AF64" s="27"/>
     </row>
-    <row r="65" spans="32:32" hidden="1">
+    <row r="65" spans="32:32">
       <c r="AF65" s="27"/>
     </row>
-    <row r="66" spans="32:32" hidden="1">
+    <row r="66" spans="32:32">
       <c r="AF66" s="27"/>
     </row>
-    <row r="67" spans="32:32" hidden="1">
+    <row r="67" spans="32:32">
       <c r="AF67" s="27"/>
     </row>
-    <row r="68" spans="32:32" hidden="1"/>
-    <row r="69" spans="32:32" hidden="1"/>
-    <row r="70" spans="32:32" hidden="1"/>
-    <row r="71" spans="32:32" hidden="1"/>
-    <row r="72" spans="32:32" hidden="1"/>
-    <row r="73" spans="32:32" hidden="1"/>
-    <row r="74" spans="32:32" hidden="1"/>
-    <row r="75" spans="32:32" hidden="1"/>
-    <row r="76" spans="32:32" hidden="1"/>
-    <row r="77" spans="32:32" hidden="1"/>
-    <row r="78" spans="32:32" hidden="1"/>
-    <row r="79" spans="32:32" hidden="1"/>
-    <row r="80" spans="32:32" hidden="1"/>
-    <row r="81" hidden="1"/>
-    <row r="82" hidden="1"/>
-    <row r="83" hidden="1"/>
-    <row r="84" hidden="1"/>
-    <row r="85" hidden="1"/>
-    <row r="86" hidden="1"/>
-    <row r="87" hidden="1"/>
   </sheetData>
-  <autoFilter ref="B5:CB87">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="LIGHT TRUCK"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B5:CB87"/>
   <mergeCells count="2">
     <mergeCell ref="B1:CB1"/>
     <mergeCell ref="B2:CB2"/>
@@ -10046,10 +10022,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H19" sqref="H19:H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10061,7 +10037,7 @@
     <col min="5" max="5" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="47.25">
+    <row r="1" spans="1:8" ht="47.25">
       <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
@@ -10083,8 +10059,11 @@
       <c r="G1" s="19" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75">
+      <c r="H1" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75">
       <c r="A2" s="1" t="s">
         <v>97</v>
       </c>
@@ -10106,8 +10085,11 @@
       <c r="G2" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75">
+      <c r="H2" s="1">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75">
       <c r="A3" s="1" t="s">
         <v>97</v>
       </c>
@@ -10129,8 +10111,11 @@
       <c r="G3" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75">
+      <c r="H3" s="1">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75">
       <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
@@ -10152,8 +10137,11 @@
       <c r="G4" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75">
+      <c r="H4" s="1">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75">
       <c r="A5" s="1" t="s">
         <v>97</v>
       </c>
@@ -10175,8 +10163,11 @@
       <c r="G5" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75">
+      <c r="H5" s="1">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75">
       <c r="A6" s="1" t="s">
         <v>97</v>
       </c>
@@ -10198,8 +10189,11 @@
       <c r="G6" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75">
+      <c r="H6" s="1">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75">
       <c r="A7" s="1" t="s">
         <v>97</v>
       </c>
@@ -10221,8 +10215,11 @@
       <c r="G7" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75">
+      <c r="H7" s="1">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75">
       <c r="A8" s="1" t="s">
         <v>97</v>
       </c>
@@ -10244,8 +10241,11 @@
       <c r="G8" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75">
+      <c r="H8" s="1">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75">
       <c r="A9" s="1" t="s">
         <v>97</v>
       </c>
@@ -10267,8 +10267,11 @@
       <c r="G9" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75">
+      <c r="H9" s="1">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75">
       <c r="A10" s="1" t="s">
         <v>97</v>
       </c>
@@ -10290,8 +10293,11 @@
       <c r="G10" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75">
+      <c r="H10" s="1">
+        <v>4175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75">
       <c r="A11" s="1" t="s">
         <v>97</v>
       </c>
@@ -10313,8 +10319,11 @@
       <c r="G11" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75">
+      <c r="H11" s="1">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75">
       <c r="A12" s="1" t="s">
         <v>97</v>
       </c>
@@ -10336,8 +10345,11 @@
       <c r="G12" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75">
+      <c r="H12" s="1">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75">
       <c r="A13" s="1" t="s">
         <v>97</v>
       </c>
@@ -10359,8 +10371,11 @@
       <c r="G13" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75">
+      <c r="H13" s="1">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75">
       <c r="A14" s="1" t="s">
         <v>97</v>
       </c>
@@ -10382,8 +10397,11 @@
       <c r="G14" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75">
+      <c r="H14" s="1">
+        <v>4175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75">
       <c r="A15" s="1" t="s">
         <v>97</v>
       </c>
@@ -10405,8 +10423,11 @@
       <c r="G15" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75">
+      <c r="H15" s="1">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75">
       <c r="A16" s="1" t="s">
         <v>97</v>
       </c>
@@ -10428,8 +10449,11 @@
       <c r="G16" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75">
+      <c r="H16" s="1">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75">
       <c r="A17" s="1" t="s">
         <v>97</v>
       </c>
@@ -10451,8 +10475,11 @@
       <c r="G17" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75">
+      <c r="H17" s="1">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75">
       <c r="A18" s="1" t="s">
         <v>97</v>
       </c>
@@ -10474,8 +10501,11 @@
       <c r="G18" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75">
+      <c r="H18" s="1">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75">
       <c r="A19" s="1" t="s">
         <v>97</v>
       </c>
@@ -10497,8 +10527,11 @@
       <c r="G19" s="1">
         <v>245</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75">
+      <c r="H19" s="1">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75">
       <c r="A20" s="1" t="s">
         <v>97</v>
       </c>
@@ -10520,8 +10553,11 @@
       <c r="G20" s="1">
         <v>245</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75">
+      <c r="H20" s="1">
+        <v>5060</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75">
       <c r="A21" s="1" t="s">
         <v>97</v>
       </c>
@@ -10543,8 +10579,11 @@
       <c r="G21" s="1">
         <v>245</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75">
+      <c r="H21" s="1">
+        <v>5060</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75">
       <c r="A22" s="1" t="s">
         <v>97</v>
       </c>
@@ -10566,8 +10605,11 @@
       <c r="G22" s="1">
         <v>245</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75">
+      <c r="H22" s="1">
+        <v>5560</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -10589,8 +10631,11 @@
       <c r="G23" s="1">
         <v>245</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75">
+      <c r="H23" s="1">
+        <v>6160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75">
       <c r="A24" s="1" t="s">
         <v>97</v>
       </c>
@@ -10612,8 +10657,11 @@
       <c r="G24" s="1">
         <v>245</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75">
+      <c r="H24" s="1">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75">
       <c r="A25" s="1" t="s">
         <v>97</v>
       </c>
@@ -10635,8 +10683,11 @@
       <c r="G25" s="1">
         <v>245</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75">
+      <c r="H25" s="1">
+        <v>4115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75">
       <c r="A26" s="1" t="s">
         <v>97</v>
       </c>
@@ -10658,8 +10709,11 @@
       <c r="G26" s="1">
         <v>245</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75">
+      <c r="H26" s="1">
+        <v>5825</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75">
       <c r="A27" s="1" t="s">
         <v>97</v>
       </c>
@@ -10681,8 +10735,11 @@
       <c r="G27" s="1">
         <v>245</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75">
+      <c r="H27" s="1">
+        <v>5825</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75">
       <c r="A28" s="1" t="s">
         <v>97</v>
       </c>
@@ -10704,8 +10761,11 @@
       <c r="G28" s="1">
         <v>245</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75">
+      <c r="H28" s="1">
+        <v>4965</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75">
       <c r="A29" s="1" t="s">
         <v>97</v>
       </c>
@@ -10727,8 +10787,11 @@
       <c r="G29" s="1">
         <v>285</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75">
+      <c r="H29" s="1">
+        <v>4115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75">
       <c r="A30" s="1" t="s">
         <v>97</v>
       </c>
@@ -10750,8 +10813,11 @@
       <c r="G30" s="1">
         <v>285</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75">
+      <c r="H30" s="1">
+        <v>5825</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75">
       <c r="A31" s="1" t="s">
         <v>97</v>
       </c>
@@ -10773,8 +10839,11 @@
       <c r="G31" s="1">
         <v>285</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75">
+      <c r="H31" s="1">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75">
       <c r="A32" s="1" t="s">
         <v>97</v>
       </c>
@@ -10796,8 +10865,11 @@
       <c r="G32" s="1">
         <v>245</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75">
+      <c r="H32" s="1">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75">
       <c r="A33" s="1" t="s">
         <v>97</v>
       </c>
@@ -10819,8 +10891,11 @@
       <c r="G33" s="1">
         <v>285</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75">
+      <c r="H33" s="1">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75">
       <c r="A34" s="1" t="s">
         <v>97</v>
       </c>
@@ -10842,8 +10917,11 @@
       <c r="G34" s="1">
         <v>285</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75">
+      <c r="H34" s="1">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75">
       <c r="A35" s="1" t="s">
         <v>97</v>
       </c>
@@ -10865,8 +10943,11 @@
       <c r="G35" s="1">
         <v>345</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75">
+      <c r="H35" s="1">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75">
       <c r="A36" s="1" t="s">
         <v>97</v>
       </c>
@@ -10888,8 +10969,11 @@
       <c r="G36" s="1">
         <v>190</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75">
+      <c r="H36" s="1">
+        <v>5320</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75">
       <c r="A37" s="1" t="s">
         <v>97</v>
       </c>
@@ -10911,8 +10995,11 @@
       <c r="G37" s="1">
         <v>210</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75">
+      <c r="H37" s="1">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75">
       <c r="A38" s="1" t="s">
         <v>97</v>
       </c>
@@ -10933,6 +11020,9 @@
       </c>
       <c r="G38" s="1">
         <v>210</v>
+      </c>
+      <c r="H38" s="1">
+        <v>6500</v>
       </c>
     </row>
   </sheetData>
@@ -13634,8 +13724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" zoomScale="117" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="117" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/ISUZU TRUCK DATABASE - TKZ.xlsx
+++ b/ISUZU TRUCK DATABASE - TKZ.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="213">
   <si>
     <t>Naming</t>
   </si>
@@ -1218,7 +1218,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1408,7 +1407,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1529,7 +1527,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2482,13 +2479,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:CH67"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="B1:CH87"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="T6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23:H42"/>
+      <selection pane="bottomRight" activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3063,7 +3061,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="2:86">
+    <row r="6" spans="2:86" hidden="1">
       <c r="B6" s="1" t="s">
         <v>97</v>
       </c>
@@ -3244,7 +3242,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="2:86">
+    <row r="7" spans="2:86" hidden="1">
       <c r="B7" s="1" t="s">
         <v>97</v>
       </c>
@@ -3425,7 +3423,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="2:86">
+    <row r="8" spans="2:86" hidden="1">
       <c r="B8" s="1" t="s">
         <v>97</v>
       </c>
@@ -3609,7 +3607,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="2:86">
+    <row r="9" spans="2:86" hidden="1">
       <c r="B9" s="1" t="s">
         <v>97</v>
       </c>
@@ -3793,7 +3791,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="2:86">
+    <row r="10" spans="2:86" hidden="1">
       <c r="B10" s="1" t="s">
         <v>97</v>
       </c>
@@ -3977,7 +3975,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:86">
+    <row r="11" spans="2:86" hidden="1">
       <c r="B11" s="1" t="s">
         <v>97</v>
       </c>
@@ -4161,7 +4159,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="2:86">
+    <row r="12" spans="2:86" hidden="1">
       <c r="B12" s="1" t="s">
         <v>97</v>
       </c>
@@ -4345,7 +4343,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:86">
+    <row r="13" spans="2:86" hidden="1">
       <c r="B13" s="1" t="s">
         <v>97</v>
       </c>
@@ -4529,7 +4527,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="2:86">
+    <row r="14" spans="2:86" hidden="1">
       <c r="B14" s="1" t="s">
         <v>97</v>
       </c>
@@ -4713,7 +4711,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="2:86">
+    <row r="15" spans="2:86" hidden="1">
       <c r="B15" s="1" t="s">
         <v>97</v>
       </c>
@@ -4897,7 +4895,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="2:86">
+    <row r="16" spans="2:86" hidden="1">
       <c r="B16" s="1" t="s">
         <v>97</v>
       </c>
@@ -5081,7 +5079,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="2:86">
+    <row r="17" spans="2:86" hidden="1">
       <c r="B17" s="1" t="s">
         <v>97</v>
       </c>
@@ -5633,7 +5631,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="2:86">
+    <row r="20" spans="2:86" hidden="1">
       <c r="B20" s="1" t="s">
         <v>97</v>
       </c>
@@ -5817,7 +5815,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="2:86">
+    <row r="21" spans="2:86" hidden="1">
       <c r="B21" s="1" t="s">
         <v>97</v>
       </c>
@@ -6001,7 +5999,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="2:86">
+    <row r="22" spans="2:86" hidden="1">
       <c r="B22" s="1" t="s">
         <v>97</v>
       </c>
@@ -6185,7 +6183,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="2:86">
+    <row r="23" spans="2:86" hidden="1">
       <c r="B23" s="1" t="s">
         <v>97</v>
       </c>
@@ -6366,7 +6364,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="2:86">
+    <row r="24" spans="2:86" hidden="1">
       <c r="B24" s="1" t="s">
         <v>97</v>
       </c>
@@ -6547,7 +6545,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="2:86">
+    <row r="25" spans="2:86" hidden="1">
       <c r="B25" s="1" t="s">
         <v>97</v>
       </c>
@@ -6728,7 +6726,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="2:86">
+    <row r="26" spans="2:86" hidden="1">
       <c r="B26" s="1" t="s">
         <v>97</v>
       </c>
@@ -6909,7 +6907,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="2:86">
+    <row r="27" spans="2:86" hidden="1">
       <c r="B27" s="1" t="s">
         <v>97</v>
       </c>
@@ -7090,7 +7088,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="2:86">
+    <row r="28" spans="2:86" hidden="1">
       <c r="B28" s="1" t="s">
         <v>97</v>
       </c>
@@ -7271,7 +7269,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="2:86">
+    <row r="29" spans="2:86" hidden="1">
       <c r="B29" s="1" t="s">
         <v>97</v>
       </c>
@@ -7455,7 +7453,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="2:86">
+    <row r="30" spans="2:86" hidden="1">
       <c r="B30" s="1" t="s">
         <v>97</v>
       </c>
@@ -7639,7 +7637,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="2:86">
+    <row r="31" spans="2:86" hidden="1">
       <c r="B31" s="1" t="s">
         <v>97</v>
       </c>
@@ -7823,7 +7821,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="2:86">
+    <row r="32" spans="2:86" hidden="1">
       <c r="B32" s="1" t="s">
         <v>97</v>
       </c>
@@ -8007,7 +8005,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="2:86">
+    <row r="33" spans="2:86" hidden="1">
       <c r="B33" s="1" t="s">
         <v>97</v>
       </c>
@@ -8191,7 +8189,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="2:86">
+    <row r="34" spans="2:86" hidden="1">
       <c r="B34" s="1" t="s">
         <v>97</v>
       </c>
@@ -8375,7 +8373,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="2:86">
+    <row r="35" spans="2:86" hidden="1">
       <c r="B35" s="1" t="s">
         <v>97</v>
       </c>
@@ -8559,7 +8557,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="2:86">
+    <row r="36" spans="2:86" hidden="1">
       <c r="B36" s="1" t="s">
         <v>97</v>
       </c>
@@ -8740,7 +8738,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="2:86">
+    <row r="37" spans="2:86" hidden="1">
       <c r="B37" s="1" t="s">
         <v>97</v>
       </c>
@@ -8921,7 +8919,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="2:86">
+    <row r="38" spans="2:86" hidden="1">
       <c r="B38" s="1" t="s">
         <v>97</v>
       </c>
@@ -9105,7 +9103,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="2:86">
+    <row r="39" spans="2:86" hidden="1">
       <c r="B39" s="1" t="s">
         <v>97</v>
       </c>
@@ -9289,7 +9287,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="2:86">
+    <row r="40" spans="2:86" hidden="1">
       <c r="B40" s="1" t="s">
         <v>97</v>
       </c>
@@ -9470,7 +9468,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="2:86">
+    <row r="41" spans="2:86" hidden="1">
       <c r="B41" s="1" t="s">
         <v>97</v>
       </c>
@@ -9651,7 +9649,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="2:86">
+    <row r="42" spans="2:86" hidden="1">
       <c r="B42" s="1" t="s">
         <v>97</v>
       </c>
@@ -9832,7 +9830,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="2:86">
+    <row r="43" spans="2:86" hidden="1">
       <c r="Q43" s="1">
         <v>1250</v>
       </c>
@@ -9841,7 +9839,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="2:86">
+    <row r="44" spans="2:86" hidden="1">
       <c r="Q44" s="1">
         <v>1250</v>
       </c>
@@ -9850,7 +9848,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="2:86">
+    <row r="45" spans="2:86" hidden="1">
       <c r="Q45" s="1">
         <v>1250</v>
       </c>
@@ -9859,7 +9857,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="2:86">
+    <row r="46" spans="2:86" hidden="1">
       <c r="Q46" s="1">
         <v>1250</v>
       </c>
@@ -9868,7 +9866,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="2:86">
+    <row r="47" spans="2:86" hidden="1">
       <c r="Q47" s="1">
         <v>1250</v>
       </c>
@@ -9877,7 +9875,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="2:86">
+    <row r="48" spans="2:86" hidden="1">
       <c r="Q48" s="1">
         <v>1250</v>
       </c>
@@ -9886,7 +9884,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="17:38">
+    <row r="49" spans="17:38" hidden="1">
       <c r="Q49" s="1">
         <v>1250</v>
       </c>
@@ -9895,7 +9893,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="17:38">
+    <row r="50" spans="17:38" hidden="1">
       <c r="Q50" s="1">
         <v>1250</v>
       </c>
@@ -9904,7 +9902,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="17:38">
+    <row r="51" spans="17:38" hidden="1">
       <c r="Q51" s="1">
         <v>1250</v>
       </c>
@@ -9913,7 +9911,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="17:38">
+    <row r="52" spans="17:38" hidden="1">
       <c r="Q52" s="1">
         <v>1250</v>
       </c>
@@ -9922,7 +9920,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="17:38">
+    <row r="53" spans="17:38" hidden="1">
       <c r="Q53" s="1">
         <v>1250</v>
       </c>
@@ -9931,7 +9929,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="17:38">
+    <row r="54" spans="17:38" hidden="1">
       <c r="Q54" s="1">
         <v>1250</v>
       </c>
@@ -9940,7 +9938,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="17:38">
+    <row r="55" spans="17:38" hidden="1">
       <c r="Q55" s="1">
         <v>1250</v>
       </c>
@@ -9949,7 +9947,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="17:38">
+    <row r="56" spans="17:38" hidden="1">
       <c r="Q56" s="1">
         <v>1250</v>
       </c>
@@ -9958,7 +9956,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="17:38">
+    <row r="57" spans="17:38" hidden="1">
       <c r="Q57" s="1">
         <v>1250</v>
       </c>
@@ -9967,7 +9965,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="17:38">
+    <row r="58" spans="17:38" hidden="1">
       <c r="Q58" s="1">
         <v>1250</v>
       </c>
@@ -9976,7 +9974,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="17:38">
+    <row r="59" spans="17:38" hidden="1">
       <c r="Q59" s="1">
         <v>1250</v>
       </c>
@@ -9985,32 +9983,58 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="17:38">
+    <row r="60" spans="17:38" hidden="1">
       <c r="AF60" s="27"/>
     </row>
-    <row r="61" spans="17:38">
+    <row r="61" spans="17:38" hidden="1">
       <c r="AF61" s="27"/>
     </row>
-    <row r="62" spans="17:38">
+    <row r="62" spans="17:38" hidden="1">
       <c r="AF62" s="27"/>
     </row>
-    <row r="63" spans="17:38">
+    <row r="63" spans="17:38" hidden="1">
       <c r="AF63" s="27"/>
     </row>
-    <row r="64" spans="17:38">
+    <row r="64" spans="17:38" hidden="1">
       <c r="AF64" s="27"/>
     </row>
-    <row r="65" spans="32:32">
+    <row r="65" spans="32:32" hidden="1">
       <c r="AF65" s="27"/>
     </row>
-    <row r="66" spans="32:32">
+    <row r="66" spans="32:32" hidden="1">
       <c r="AF66" s="27"/>
     </row>
-    <row r="67" spans="32:32">
+    <row r="67" spans="32:32" hidden="1">
       <c r="AF67" s="27"/>
     </row>
+    <row r="68" spans="32:32" hidden="1"/>
+    <row r="69" spans="32:32" hidden="1"/>
+    <row r="70" spans="32:32" hidden="1"/>
+    <row r="71" spans="32:32" hidden="1"/>
+    <row r="72" spans="32:32" hidden="1"/>
+    <row r="73" spans="32:32" hidden="1"/>
+    <row r="74" spans="32:32" hidden="1"/>
+    <row r="75" spans="32:32" hidden="1"/>
+    <row r="76" spans="32:32" hidden="1"/>
+    <row r="77" spans="32:32" hidden="1"/>
+    <row r="78" spans="32:32" hidden="1"/>
+    <row r="79" spans="32:32" hidden="1"/>
+    <row r="80" spans="32:32" hidden="1"/>
+    <row r="81" hidden="1"/>
+    <row r="82" hidden="1"/>
+    <row r="83" hidden="1"/>
+    <row r="84" hidden="1"/>
+    <row r="85" hidden="1"/>
+    <row r="86" hidden="1"/>
+    <row r="87" hidden="1"/>
   </sheetData>
-  <autoFilter ref="B5:CB87"/>
+  <autoFilter ref="B5:CB87">
+    <filterColumn colId="21">
+      <filters>
+        <filter val="4JB1-TC"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="B1:CB1"/>
     <mergeCell ref="B2:CB2"/>
@@ -10022,10 +10046,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:H38"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10037,7 +10061,7 @@
     <col min="5" max="5" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="47.25">
+    <row r="1" spans="1:9" ht="47.25">
       <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
@@ -10062,8 +10086,11 @@
       <c r="H1" s="17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75">
+      <c r="I1" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="1" t="s">
         <v>97</v>
       </c>
@@ -10088,8 +10115,11 @@
       <c r="H2" s="1">
         <v>2250</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75">
+      <c r="I2" s="1">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="1" t="s">
         <v>97</v>
       </c>
@@ -10114,8 +10144,11 @@
       <c r="H3" s="1">
         <v>2250</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75">
+      <c r="I3" s="1">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
@@ -10140,8 +10173,11 @@
       <c r="H4" s="1">
         <v>2490</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75">
+      <c r="I4" s="1">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75">
       <c r="A5" s="1" t="s">
         <v>97</v>
       </c>
@@ -10166,8 +10202,11 @@
       <c r="H5" s="1">
         <v>2490</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75">
+      <c r="I5" s="1">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="1" t="s">
         <v>97</v>
       </c>
@@ -10192,8 +10231,11 @@
       <c r="H6" s="1">
         <v>3360</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75">
+      <c r="I6" s="1">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75">
       <c r="A7" s="1" t="s">
         <v>97</v>
       </c>
@@ -10218,8 +10260,11 @@
       <c r="H7" s="1">
         <v>2490</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75">
+      <c r="I7" s="1">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75">
       <c r="A8" s="1" t="s">
         <v>97</v>
       </c>
@@ -10244,8 +10289,11 @@
       <c r="H8" s="1">
         <v>3360</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75">
+      <c r="I8" s="1">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75">
       <c r="A9" s="1" t="s">
         <v>97</v>
       </c>
@@ -10270,8 +10318,11 @@
       <c r="H9" s="1">
         <v>3360</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75">
+      <c r="I9" s="1">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="1" t="s">
         <v>97</v>
       </c>
@@ -10296,8 +10347,11 @@
       <c r="H10" s="1">
         <v>4175</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75">
+      <c r="I10" s="1">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75">
       <c r="A11" s="1" t="s">
         <v>97</v>
       </c>
@@ -10322,8 +10376,11 @@
       <c r="H11" s="1">
         <v>3360</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75">
+      <c r="I11" s="1">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="1" t="s">
         <v>97</v>
       </c>
@@ -10348,8 +10405,11 @@
       <c r="H12" s="1">
         <v>3360</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75">
+      <c r="I12" s="1">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75">
       <c r="A13" s="1" t="s">
         <v>97</v>
       </c>
@@ -10374,8 +10434,11 @@
       <c r="H13" s="1">
         <v>3395</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75">
+      <c r="I13" s="1">
+        <v>4778</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75">
       <c r="A14" s="1" t="s">
         <v>97</v>
       </c>
@@ -10400,8 +10463,11 @@
       <c r="H14" s="1">
         <v>4175</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75">
+      <c r="I14" s="1">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75">
       <c r="A15" s="1" t="s">
         <v>97</v>
       </c>
@@ -10426,8 +10492,11 @@
       <c r="H15" s="1">
         <v>2490</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75">
+      <c r="I15" s="1">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="1" t="s">
         <v>97</v>
       </c>
@@ -10452,8 +10521,11 @@
       <c r="H16" s="1">
         <v>2490</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75">
+      <c r="I16" s="1">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75">
       <c r="A17" s="1" t="s">
         <v>97</v>
       </c>
@@ -10478,8 +10550,11 @@
       <c r="H17" s="1">
         <v>3360</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75">
+      <c r="I17" s="1">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75">
       <c r="A18" s="1" t="s">
         <v>97</v>
       </c>
@@ -10504,8 +10579,11 @@
       <c r="H18" s="1">
         <v>3360</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75">
+      <c r="I18" s="1">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75">
       <c r="A19" s="1" t="s">
         <v>97</v>
       </c>
@@ -10530,8 +10608,11 @@
       <c r="H19" s="1">
         <v>4300</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75">
+      <c r="I19" s="1">
+        <v>7790</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75">
       <c r="A20" s="1" t="s">
         <v>97</v>
       </c>
@@ -10556,8 +10637,11 @@
       <c r="H20" s="1">
         <v>5060</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75">
+      <c r="I20" s="1">
+        <v>7790</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75">
       <c r="A21" s="1" t="s">
         <v>97</v>
       </c>
@@ -10582,8 +10666,11 @@
       <c r="H21" s="1">
         <v>5060</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75">
+      <c r="I21" s="1">
+        <v>7790</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75">
       <c r="A22" s="1" t="s">
         <v>97</v>
       </c>
@@ -10608,8 +10695,11 @@
       <c r="H22" s="1">
         <v>5560</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75">
+      <c r="I22" s="1">
+        <v>7790</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -10634,8 +10724,11 @@
       <c r="H23" s="1">
         <v>6160</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75">
+      <c r="I23" s="1">
+        <v>7790</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75">
       <c r="A24" s="1" t="s">
         <v>97</v>
       </c>
@@ -10660,8 +10753,11 @@
       <c r="H24" s="1">
         <v>6600</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75">
+      <c r="I24" s="1">
+        <v>7790</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75">
       <c r="A25" s="1" t="s">
         <v>97</v>
       </c>
@@ -10686,8 +10782,11 @@
       <c r="H25" s="1">
         <v>4115</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75">
+      <c r="I25" s="1">
+        <v>7790</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75">
       <c r="A26" s="1" t="s">
         <v>97</v>
       </c>
@@ -10712,8 +10811,11 @@
       <c r="H26" s="1">
         <v>5825</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75">
+      <c r="I26" s="1">
+        <v>7790</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75">
       <c r="A27" s="1" t="s">
         <v>97</v>
       </c>
@@ -10738,8 +10840,11 @@
       <c r="H27" s="1">
         <v>5825</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75">
+      <c r="I27" s="1">
+        <v>7790</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75">
       <c r="A28" s="1" t="s">
         <v>97</v>
       </c>
@@ -10764,8 +10869,11 @@
       <c r="H28" s="1">
         <v>4965</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75">
+      <c r="I28" s="1">
+        <v>7790</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75">
       <c r="A29" s="1" t="s">
         <v>97</v>
       </c>
@@ -10790,8 +10898,11 @@
       <c r="H29" s="1">
         <v>4115</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75">
+      <c r="I29" s="1">
+        <v>7790</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75">
       <c r="A30" s="1" t="s">
         <v>97</v>
       </c>
@@ -10816,8 +10927,11 @@
       <c r="H30" s="1">
         <v>5825</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75">
+      <c r="I30" s="1">
+        <v>7790</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75">
       <c r="A31" s="1" t="s">
         <v>97</v>
       </c>
@@ -10842,8 +10956,11 @@
       <c r="H31" s="1">
         <v>3565</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75">
+      <c r="I31" s="1">
+        <v>7790</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75">
       <c r="A32" s="1" t="s">
         <v>97</v>
       </c>
@@ -10868,8 +10985,11 @@
       <c r="H32" s="1">
         <v>3560</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75">
+      <c r="I32" s="1">
+        <v>7790</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75">
       <c r="A33" s="1" t="s">
         <v>97</v>
       </c>
@@ -10894,8 +11014,11 @@
       <c r="H33" s="1">
         <v>3560</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75">
+      <c r="I33" s="1">
+        <v>7790</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75">
       <c r="A34" s="1" t="s">
         <v>97</v>
       </c>
@@ -10920,8 +11043,11 @@
       <c r="H34" s="1">
         <v>3265</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75">
+      <c r="I34" s="1">
+        <v>7790</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75">
       <c r="A35" s="1" t="s">
         <v>97</v>
       </c>
@@ -10946,8 +11072,11 @@
       <c r="H35" s="1">
         <v>3265</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75">
+      <c r="I35" s="1">
+        <v>7790</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75">
       <c r="A36" s="1" t="s">
         <v>97</v>
       </c>
@@ -10972,8 +11101,11 @@
       <c r="H36" s="1">
         <v>5320</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75">
+      <c r="I36" s="1">
+        <v>5193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75">
       <c r="A37" s="1" t="s">
         <v>97</v>
       </c>
@@ -10998,8 +11130,11 @@
       <c r="H37" s="1">
         <v>6050</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75">
+      <c r="I37" s="1">
+        <v>5193</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75">
       <c r="A38" s="1" t="s">
         <v>97</v>
       </c>
@@ -11023,6 +11158,9 @@
       </c>
       <c r="H38" s="1">
         <v>6500</v>
+      </c>
+      <c r="I38" s="1">
+        <v>5193</v>
       </c>
     </row>
   </sheetData>

--- a/ISUZU TRUCK DATABASE - TKZ.xlsx
+++ b/ISUZU TRUCK DATABASE - TKZ.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="213">
   <si>
     <t>Naming</t>
   </si>
@@ -2479,14 +2479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B1:CH87"/>
+  <dimension ref="B1:CH67"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="T6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="T37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AH5" sqref="AH5"/>
+      <selection pane="bottomRight" activeCell="W23" sqref="W23:W42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3061,7 +3060,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="2:86" hidden="1">
+    <row r="6" spans="2:86">
       <c r="B6" s="1" t="s">
         <v>97</v>
       </c>
@@ -3242,7 +3241,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="2:86" hidden="1">
+    <row r="7" spans="2:86">
       <c r="B7" s="1" t="s">
         <v>97</v>
       </c>
@@ -3423,7 +3422,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="2:86" hidden="1">
+    <row r="8" spans="2:86">
       <c r="B8" s="1" t="s">
         <v>97</v>
       </c>
@@ -3607,7 +3606,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="2:86" hidden="1">
+    <row r="9" spans="2:86">
       <c r="B9" s="1" t="s">
         <v>97</v>
       </c>
@@ -3791,7 +3790,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="2:86" hidden="1">
+    <row r="10" spans="2:86">
       <c r="B10" s="1" t="s">
         <v>97</v>
       </c>
@@ -3975,7 +3974,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:86" hidden="1">
+    <row r="11" spans="2:86">
       <c r="B11" s="1" t="s">
         <v>97</v>
       </c>
@@ -4159,7 +4158,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="2:86" hidden="1">
+    <row r="12" spans="2:86">
       <c r="B12" s="1" t="s">
         <v>97</v>
       </c>
@@ -4343,7 +4342,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:86" hidden="1">
+    <row r="13" spans="2:86">
       <c r="B13" s="1" t="s">
         <v>97</v>
       </c>
@@ -4527,7 +4526,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="2:86" hidden="1">
+    <row r="14" spans="2:86">
       <c r="B14" s="1" t="s">
         <v>97</v>
       </c>
@@ -4711,7 +4710,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="2:86" hidden="1">
+    <row r="15" spans="2:86">
       <c r="B15" s="1" t="s">
         <v>97</v>
       </c>
@@ -4895,7 +4894,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="2:86" hidden="1">
+    <row r="16" spans="2:86">
       <c r="B16" s="1" t="s">
         <v>97</v>
       </c>
@@ -5079,7 +5078,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="2:86" hidden="1">
+    <row r="17" spans="2:86">
       <c r="B17" s="1" t="s">
         <v>97</v>
       </c>
@@ -5631,7 +5630,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="2:86" hidden="1">
+    <row r="20" spans="2:86">
       <c r="B20" s="1" t="s">
         <v>97</v>
       </c>
@@ -5815,7 +5814,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="2:86" hidden="1">
+    <row r="21" spans="2:86">
       <c r="B21" s="1" t="s">
         <v>97</v>
       </c>
@@ -5999,7 +5998,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="2:86" hidden="1">
+    <row r="22" spans="2:86">
       <c r="B22" s="1" t="s">
         <v>97</v>
       </c>
@@ -6183,7 +6182,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="2:86" hidden="1">
+    <row r="23" spans="2:86">
       <c r="B23" s="1" t="s">
         <v>97</v>
       </c>
@@ -6364,7 +6363,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="2:86" hidden="1">
+    <row r="24" spans="2:86">
       <c r="B24" s="1" t="s">
         <v>97</v>
       </c>
@@ -6545,7 +6544,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="2:86" hidden="1">
+    <row r="25" spans="2:86">
       <c r="B25" s="1" t="s">
         <v>97</v>
       </c>
@@ -6726,7 +6725,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="2:86" hidden="1">
+    <row r="26" spans="2:86">
       <c r="B26" s="1" t="s">
         <v>97</v>
       </c>
@@ -6907,7 +6906,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="2:86" hidden="1">
+    <row r="27" spans="2:86">
       <c r="B27" s="1" t="s">
         <v>97</v>
       </c>
@@ -7088,7 +7087,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="2:86" hidden="1">
+    <row r="28" spans="2:86">
       <c r="B28" s="1" t="s">
         <v>97</v>
       </c>
@@ -7269,7 +7268,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="2:86" hidden="1">
+    <row r="29" spans="2:86">
       <c r="B29" s="1" t="s">
         <v>97</v>
       </c>
@@ -7453,7 +7452,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="2:86" hidden="1">
+    <row r="30" spans="2:86">
       <c r="B30" s="1" t="s">
         <v>97</v>
       </c>
@@ -7637,7 +7636,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="2:86" hidden="1">
+    <row r="31" spans="2:86">
       <c r="B31" s="1" t="s">
         <v>97</v>
       </c>
@@ -7821,7 +7820,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="2:86" hidden="1">
+    <row r="32" spans="2:86">
       <c r="B32" s="1" t="s">
         <v>97</v>
       </c>
@@ -8005,7 +8004,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="2:86" hidden="1">
+    <row r="33" spans="2:86">
       <c r="B33" s="1" t="s">
         <v>97</v>
       </c>
@@ -8189,7 +8188,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="2:86" hidden="1">
+    <row r="34" spans="2:86">
       <c r="B34" s="1" t="s">
         <v>97</v>
       </c>
@@ -8373,7 +8372,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="2:86" hidden="1">
+    <row r="35" spans="2:86">
       <c r="B35" s="1" t="s">
         <v>97</v>
       </c>
@@ -8557,7 +8556,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="2:86" hidden="1">
+    <row r="36" spans="2:86">
       <c r="B36" s="1" t="s">
         <v>97</v>
       </c>
@@ -8738,7 +8737,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="2:86" hidden="1">
+    <row r="37" spans="2:86">
       <c r="B37" s="1" t="s">
         <v>97</v>
       </c>
@@ -8919,7 +8918,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="2:86" hidden="1">
+    <row r="38" spans="2:86">
       <c r="B38" s="1" t="s">
         <v>97</v>
       </c>
@@ -9103,7 +9102,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="2:86" hidden="1">
+    <row r="39" spans="2:86">
       <c r="B39" s="1" t="s">
         <v>97</v>
       </c>
@@ -9287,7 +9286,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="2:86" hidden="1">
+    <row r="40" spans="2:86">
       <c r="B40" s="1" t="s">
         <v>97</v>
       </c>
@@ -9468,7 +9467,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="2:86" hidden="1">
+    <row r="41" spans="2:86">
       <c r="B41" s="1" t="s">
         <v>97</v>
       </c>
@@ -9649,7 +9648,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="2:86" hidden="1">
+    <row r="42" spans="2:86">
       <c r="B42" s="1" t="s">
         <v>97</v>
       </c>
@@ -9830,7 +9829,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="2:86" hidden="1">
+    <row r="43" spans="2:86">
       <c r="Q43" s="1">
         <v>1250</v>
       </c>
@@ -9839,7 +9838,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="2:86" hidden="1">
+    <row r="44" spans="2:86">
       <c r="Q44" s="1">
         <v>1250</v>
       </c>
@@ -9848,7 +9847,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="2:86" hidden="1">
+    <row r="45" spans="2:86">
       <c r="Q45" s="1">
         <v>1250</v>
       </c>
@@ -9857,7 +9856,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="2:86" hidden="1">
+    <row r="46" spans="2:86">
       <c r="Q46" s="1">
         <v>1250</v>
       </c>
@@ -9866,7 +9865,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="2:86" hidden="1">
+    <row r="47" spans="2:86">
       <c r="Q47" s="1">
         <v>1250</v>
       </c>
@@ -9875,7 +9874,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="2:86" hidden="1">
+    <row r="48" spans="2:86">
       <c r="Q48" s="1">
         <v>1250</v>
       </c>
@@ -9884,7 +9883,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="17:38" hidden="1">
+    <row r="49" spans="17:38">
       <c r="Q49" s="1">
         <v>1250</v>
       </c>
@@ -9893,7 +9892,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="17:38" hidden="1">
+    <row r="50" spans="17:38">
       <c r="Q50" s="1">
         <v>1250</v>
       </c>
@@ -9902,7 +9901,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="17:38" hidden="1">
+    <row r="51" spans="17:38">
       <c r="Q51" s="1">
         <v>1250</v>
       </c>
@@ -9911,7 +9910,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="17:38" hidden="1">
+    <row r="52" spans="17:38">
       <c r="Q52" s="1">
         <v>1250</v>
       </c>
@@ -9920,7 +9919,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="17:38" hidden="1">
+    <row r="53" spans="17:38">
       <c r="Q53" s="1">
         <v>1250</v>
       </c>
@@ -9929,7 +9928,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="17:38" hidden="1">
+    <row r="54" spans="17:38">
       <c r="Q54" s="1">
         <v>1250</v>
       </c>
@@ -9938,7 +9937,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="17:38" hidden="1">
+    <row r="55" spans="17:38">
       <c r="Q55" s="1">
         <v>1250</v>
       </c>
@@ -9947,7 +9946,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="17:38" hidden="1">
+    <row r="56" spans="17:38">
       <c r="Q56" s="1">
         <v>1250</v>
       </c>
@@ -9956,7 +9955,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="17:38" hidden="1">
+    <row r="57" spans="17:38">
       <c r="Q57" s="1">
         <v>1250</v>
       </c>
@@ -9965,7 +9964,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="17:38" hidden="1">
+    <row r="58" spans="17:38">
       <c r="Q58" s="1">
         <v>1250</v>
       </c>
@@ -9974,7 +9973,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="17:38" hidden="1">
+    <row r="59" spans="17:38">
       <c r="Q59" s="1">
         <v>1250</v>
       </c>
@@ -9983,58 +9982,32 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="17:38" hidden="1">
+    <row r="60" spans="17:38">
       <c r="AF60" s="27"/>
     </row>
-    <row r="61" spans="17:38" hidden="1">
+    <row r="61" spans="17:38">
       <c r="AF61" s="27"/>
     </row>
-    <row r="62" spans="17:38" hidden="1">
+    <row r="62" spans="17:38">
       <c r="AF62" s="27"/>
     </row>
-    <row r="63" spans="17:38" hidden="1">
+    <row r="63" spans="17:38">
       <c r="AF63" s="27"/>
     </row>
-    <row r="64" spans="17:38" hidden="1">
+    <row r="64" spans="17:38">
       <c r="AF64" s="27"/>
     </row>
-    <row r="65" spans="32:32" hidden="1">
+    <row r="65" spans="32:32">
       <c r="AF65" s="27"/>
     </row>
-    <row r="66" spans="32:32" hidden="1">
+    <row r="66" spans="32:32">
       <c r="AF66" s="27"/>
     </row>
-    <row r="67" spans="32:32" hidden="1">
+    <row r="67" spans="32:32">
       <c r="AF67" s="27"/>
     </row>
-    <row r="68" spans="32:32" hidden="1"/>
-    <row r="69" spans="32:32" hidden="1"/>
-    <row r="70" spans="32:32" hidden="1"/>
-    <row r="71" spans="32:32" hidden="1"/>
-    <row r="72" spans="32:32" hidden="1"/>
-    <row r="73" spans="32:32" hidden="1"/>
-    <row r="74" spans="32:32" hidden="1"/>
-    <row r="75" spans="32:32" hidden="1"/>
-    <row r="76" spans="32:32" hidden="1"/>
-    <row r="77" spans="32:32" hidden="1"/>
-    <row r="78" spans="32:32" hidden="1"/>
-    <row r="79" spans="32:32" hidden="1"/>
-    <row r="80" spans="32:32" hidden="1"/>
-    <row r="81" hidden="1"/>
-    <row r="82" hidden="1"/>
-    <row r="83" hidden="1"/>
-    <row r="84" hidden="1"/>
-    <row r="85" hidden="1"/>
-    <row r="86" hidden="1"/>
-    <row r="87" hidden="1"/>
   </sheetData>
-  <autoFilter ref="B5:CB87">
-    <filterColumn colId="21">
-      <filters>
-        <filter val="4JB1-TC"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B5:CB87"/>
   <mergeCells count="2">
     <mergeCell ref="B1:CB1"/>
     <mergeCell ref="B2:CB2"/>
@@ -10046,10 +10019,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19:J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10059,9 +10032,10 @@
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="47.25">
+    <row r="1" spans="1:10" ht="47.25">
       <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
@@ -10089,8 +10063,11 @@
       <c r="I1" s="19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75">
+      <c r="J1" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75">
       <c r="A2" s="1" t="s">
         <v>97</v>
       </c>
@@ -10118,8 +10095,11 @@
       <c r="I2" s="1">
         <v>2499</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75">
+      <c r="J2" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="1" t="s">
         <v>97</v>
       </c>
@@ -10147,8 +10127,11 @@
       <c r="I3" s="1">
         <v>2499</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75">
+      <c r="J3" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75">
       <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
@@ -10176,8 +10159,11 @@
       <c r="I4" s="1">
         <v>2771</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75">
+      <c r="J4" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="1" t="s">
         <v>97</v>
       </c>
@@ -10205,8 +10191,11 @@
       <c r="I5" s="1">
         <v>2771</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75">
+      <c r="J5" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75">
       <c r="A6" s="1" t="s">
         <v>97</v>
       </c>
@@ -10234,8 +10223,11 @@
       <c r="I6" s="1">
         <v>2771</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75">
+      <c r="J6" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75">
       <c r="A7" s="1" t="s">
         <v>97</v>
       </c>
@@ -10263,8 +10255,11 @@
       <c r="I7" s="1">
         <v>4570</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75">
+      <c r="J7" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75">
       <c r="A8" s="1" t="s">
         <v>97</v>
       </c>
@@ -10292,8 +10287,11 @@
       <c r="I8" s="1">
         <v>4570</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75">
+      <c r="J8" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75">
       <c r="A9" s="1" t="s">
         <v>97</v>
       </c>
@@ -10321,8 +10319,11 @@
       <c r="I9" s="1">
         <v>4570</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75">
+      <c r="J9" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75">
       <c r="A10" s="1" t="s">
         <v>97</v>
       </c>
@@ -10350,8 +10351,11 @@
       <c r="I10" s="1">
         <v>4570</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75">
+      <c r="J10" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75">
       <c r="A11" s="1" t="s">
         <v>97</v>
       </c>
@@ -10379,8 +10383,11 @@
       <c r="I11" s="1">
         <v>4570</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75">
+      <c r="J11" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75">
       <c r="A12" s="1" t="s">
         <v>97</v>
       </c>
@@ -10408,8 +10415,11 @@
       <c r="I12" s="1">
         <v>4570</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75">
+      <c r="J12" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75">
       <c r="A13" s="1" t="s">
         <v>97</v>
       </c>
@@ -10437,8 +10447,11 @@
       <c r="I13" s="1">
         <v>4778</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75">
+      <c r="J13" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75">
       <c r="A14" s="1" t="s">
         <v>97</v>
       </c>
@@ -10466,8 +10479,11 @@
       <c r="I14" s="1">
         <v>4570</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75">
+      <c r="J14" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75">
       <c r="A15" s="1" t="s">
         <v>97</v>
       </c>
@@ -10495,8 +10511,11 @@
       <c r="I15" s="1">
         <v>2771</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75">
+      <c r="J15" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75">
       <c r="A16" s="1" t="s">
         <v>97</v>
       </c>
@@ -10524,8 +10543,11 @@
       <c r="I16" s="1">
         <v>2771</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75">
+      <c r="J16" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75">
       <c r="A17" s="1" t="s">
         <v>97</v>
       </c>
@@ -10553,8 +10575,11 @@
       <c r="I17" s="1">
         <v>4570</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75">
+      <c r="J17" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75">
       <c r="A18" s="1" t="s">
         <v>97</v>
       </c>
@@ -10582,8 +10607,11 @@
       <c r="I18" s="1">
         <v>4570</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75">
+      <c r="J18" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75">
       <c r="A19" s="1" t="s">
         <v>97</v>
       </c>
@@ -10611,8 +10639,11 @@
       <c r="I19" s="1">
         <v>7790</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75">
+      <c r="J19" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75">
       <c r="A20" s="1" t="s">
         <v>97</v>
       </c>
@@ -10640,8 +10671,11 @@
       <c r="I20" s="1">
         <v>7790</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75">
+      <c r="J20" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75">
       <c r="A21" s="1" t="s">
         <v>97</v>
       </c>
@@ -10669,8 +10703,11 @@
       <c r="I21" s="1">
         <v>7790</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75">
+      <c r="J21" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="1" t="s">
         <v>97</v>
       </c>
@@ -10698,8 +10735,11 @@
       <c r="I22" s="1">
         <v>7790</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75">
+      <c r="J22" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -10727,8 +10767,11 @@
       <c r="I23" s="1">
         <v>7790</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75">
+      <c r="J23" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="1" t="s">
         <v>97</v>
       </c>
@@ -10756,8 +10799,11 @@
       <c r="I24" s="1">
         <v>7790</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75">
+      <c r="J24" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75">
       <c r="A25" s="1" t="s">
         <v>97</v>
       </c>
@@ -10785,8 +10831,11 @@
       <c r="I25" s="1">
         <v>7790</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75">
+      <c r="J25" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75">
       <c r="A26" s="1" t="s">
         <v>97</v>
       </c>
@@ -10814,8 +10863,11 @@
       <c r="I26" s="1">
         <v>7790</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75">
+      <c r="J26" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75">
       <c r="A27" s="1" t="s">
         <v>97</v>
       </c>
@@ -10843,8 +10895,11 @@
       <c r="I27" s="1">
         <v>7790</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75">
+      <c r="J27" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75">
       <c r="A28" s="1" t="s">
         <v>97</v>
       </c>
@@ -10872,8 +10927,11 @@
       <c r="I28" s="1">
         <v>7790</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75">
+      <c r="J28" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75">
       <c r="A29" s="1" t="s">
         <v>97</v>
       </c>
@@ -10901,8 +10959,11 @@
       <c r="I29" s="1">
         <v>7790</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75">
+      <c r="J29" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75">
       <c r="A30" s="1" t="s">
         <v>97</v>
       </c>
@@ -10930,8 +10991,11 @@
       <c r="I30" s="1">
         <v>7790</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75">
+      <c r="J30" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75">
       <c r="A31" s="1" t="s">
         <v>97</v>
       </c>
@@ -10959,8 +11023,11 @@
       <c r="I31" s="1">
         <v>7790</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75">
+      <c r="J31" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75">
       <c r="A32" s="1" t="s">
         <v>97</v>
       </c>
@@ -10988,8 +11055,11 @@
       <c r="I32" s="1">
         <v>7790</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75">
+      <c r="J32" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75">
       <c r="A33" s="1" t="s">
         <v>97</v>
       </c>
@@ -11017,8 +11087,11 @@
       <c r="I33" s="1">
         <v>7790</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.75">
+      <c r="J33" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75">
       <c r="A34" s="1" t="s">
         <v>97</v>
       </c>
@@ -11046,8 +11119,11 @@
       <c r="I34" s="1">
         <v>7790</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.75">
+      <c r="J34" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.75">
       <c r="A35" s="1" t="s">
         <v>97</v>
       </c>
@@ -11075,8 +11151,11 @@
       <c r="I35" s="1">
         <v>7790</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.75">
+      <c r="J35" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75">
       <c r="A36" s="1" t="s">
         <v>97</v>
       </c>
@@ -11104,8 +11183,11 @@
       <c r="I36" s="1">
         <v>5193</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.75">
+      <c r="J36" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75">
       <c r="A37" s="1" t="s">
         <v>97</v>
       </c>
@@ -11133,8 +11215,11 @@
       <c r="I37" s="1">
         <v>5193</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75">
+      <c r="J37" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.75">
       <c r="A38" s="1" t="s">
         <v>97</v>
       </c>
@@ -11161,6 +11246,9 @@
       </c>
       <c r="I38" s="1">
         <v>5193</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
